--- a/Resultados/Mercado mundial - Sandías.xlsx
+++ b/Resultados/Mercado mundial - Sandías.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="Algeria" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argelia" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,9 +301,8 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -407,13 +406,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -433,21 +432,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Mundial'!$B$12:$B$73</f>
+              <f>'Mundial'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Mundial'!$C$12:$C$73</f>
+              <f>'Mundial'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -489,13 +488,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -515,10 +514,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -571,13 +570,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -597,21 +596,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países exportadores'!$B$12:$B$22</f>
+              <f>'Países exportadores'!$B$12:$B$23</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países exportadores'!$C$12:$C$22</f>
+              <f>'Países exportadores'!$C$12:$C$23</f>
             </numRef>
           </val>
         </ser>
@@ -653,13 +652,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -679,10 +678,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -735,13 +734,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -761,21 +760,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, mainland'!$B$12:$B$73</f>
+              <f>'China, Continental'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, mainland'!$C$12:$C$73</f>
+              <f>'China, Continental'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -817,13 +816,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -843,21 +842,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'India'!$B$12:$B$73</f>
+              <f>'India'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'India'!$C$12:$C$73</f>
+              <f>'India'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -899,13 +898,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -925,21 +924,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Türkiye'!$B$12:$B$73</f>
+              <f>'Türkiye'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Türkiye'!$C$12:$C$73</f>
+              <f>'Türkiye'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -981,13 +980,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1007,21 +1006,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Algeria'!$B$12:$B$73</f>
+              <f>'Argelia'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Algeria'!$C$12:$C$73</f>
+              <f>'Argelia'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1063,13 +1062,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1089,21 +1088,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill>
+            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brazil'!$B$12:$B$73</f>
+              <f>'Brasil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brazil'!$C$12:$C$73</f>
+              <f>'Brasil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1145,7 +1144,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1163,26 +1162,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1203,9 +1202,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1215,7 +1214,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1233,26 +1232,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1273,9 +1272,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1285,7 +1284,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1303,26 +1302,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1343,9 +1342,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1355,7 +1354,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1373,26 +1372,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip r:embed="rId2"/>
-        <a:srcRect/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom prst="rect">
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
+        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1413,9 +1412,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1425,7 +1424,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1440,9 +1439,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1462,13 +1461,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1477,7 +1476,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1492,9 +1491,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1514,13 +1513,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1529,7 +1528,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1544,9 +1543,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1566,13 +1565,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1581,7 +1580,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1596,9 +1595,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1618,13 +1617,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1633,7 +1632,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1648,9 +1647,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1670,13 +1669,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2011,8 +2010,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2060,7 +2059,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2139,10 +2138,10 @@
         <v>3042931</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>34.4839</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>104932071.27</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>34.4839</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4554355.82</v>
@@ -2161,10 +2160,10 @@
         <v>3028777</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>34.0214</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>103043171.16</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>34.0214</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4490585.29</v>
@@ -2183,10 +2182,10 @@
         <v>3084133</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>33.3047</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>102716218.95</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>33.3047</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4517560</v>
@@ -2205,10 +2204,10 @@
         <v>3159850</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>33.0187</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>104334182.13</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>33.0187</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4427913.27</v>
@@ -2227,10 +2226,10 @@
         <v>3154134</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>32.3731</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>102108964.86</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>32.3731</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4380480.35</v>
@@ -2249,10 +2248,10 @@
         <v>3098794</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>32.6082</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>101046103.04</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>32.6082</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4147410.11</v>
@@ -2271,10 +2270,10 @@
         <v>3089539</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>32.678</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>100959882.75</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>32.678</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3959899.66</v>
@@ -2293,10 +2292,10 @@
         <v>3202333</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>31.9828</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>102419474.24</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>31.9828</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3926966.92</v>
@@ -2315,10 +2314,10 @@
         <v>3170048</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>31.8664</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>101018086.75</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>31.8664</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3542486.04</v>
@@ -2337,10 +2336,10 @@
         <v>3158878</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>31.4106</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>99222324.77</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>31.4106</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3046836.38</v>
@@ -2359,10 +2358,10 @@
         <v>3146614</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>31.0004</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>97546164.97</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>31.0004</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2595276</v>
@@ -2381,10 +2380,10 @@
         <v>3126375</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>30.7683</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>96193347.22</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>30.7683</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2570025</v>
@@ -2403,10 +2402,10 @@
         <v>3201248</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>29.5439</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>94577438.08</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>29.5439</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2421556</v>
@@ -2425,10 +2424,10 @@
         <v>3202239</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>29.2057</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>93523696.06</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>29.2057</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2469057</v>
@@ -2447,10 +2446,10 @@
         <v>3165035</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>28.9128</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>91510041.95999999</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>28.9128</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2309534</v>
@@ -2469,10 +2468,10 @@
         <v>3145479</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>28.3784</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>89263740.61</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>28.3784</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2252616</v>
@@ -2491,10 +2490,10 @@
         <v>3227307</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>26.8685</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>86713001.78</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>26.8685</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2062675</v>
@@ -2513,10 +2512,10 @@
         <v>3338593</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>28.0496</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>93646135.65000001</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>28.0496</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2033455</v>
@@ -2535,10 +2534,10 @@
         <v>3251742</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>28.0388</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>91175031.53</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>28.0388</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1897259</v>
@@ -2557,10 +2556,10 @@
         <v>3239671</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>27.2288</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>88212495.67</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>27.2288</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1707166</v>
@@ -2579,10 +2578,10 @@
         <v>3444915</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>25.7101</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>88569264.69</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>25.7101</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1685140</v>
@@ -2601,10 +2600,10 @@
         <v>3309798</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>27.3293</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>90454622.61</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>27.3293</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1574866.7</v>
@@ -2623,10 +2622,10 @@
         <v>3260879</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>25.5937</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>83457942.77</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>25.5937</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1506965</v>
@@ -2645,10 +2644,10 @@
         <v>3151667</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>24.3308</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>76682625.48999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>24.3308</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1512451.31</v>
@@ -2667,10 +2666,10 @@
         <v>3007504</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>24.3539</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>73244540.12</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>24.3539</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1585690.93</v>
@@ -2689,10 +2688,10 @@
         <v>2831843</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>21.6408</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>61283262.69</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>21.6408</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1534756</v>
@@ -2711,10 +2710,10 @@
         <v>2559675</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>23.3741</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>59830048.74</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>23.3741</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1443402.01</v>
@@ -2733,10 +2732,10 @@
         <v>2454050</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>19.4131</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>47640784.13</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>19.4131</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1286784.02</v>
@@ -2755,10 +2754,10 @@
         <v>2333928</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>17.8367</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>41629489.79</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>17.8367</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1258419</v>
@@ -2777,10 +2776,10 @@
         <v>2214568</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17.3383</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>38396780.17</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17.3383</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1138270</v>
@@ -2799,10 +2798,10 @@
         <v>2251730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>16.9872</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>38250481.55</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>16.9872</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>967244</v>
@@ -2821,10 +2820,10 @@
         <v>2227244</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>16.2974</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>36298249.5</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>16.2974</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>974042</v>
@@ -2843,10 +2842,10 @@
         <v>2194814</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>15.9814</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>35076229.8</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>15.9814</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>794606</v>
@@ -2865,10 +2864,10 @@
         <v>2111636</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>16.5131</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>34869745</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>16.5131</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>723297</v>
@@ -2887,10 +2886,10 @@
         <v>2336817</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>14.9602</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>34959232</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>14.9602</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>678549</v>
@@ -2909,10 +2908,10 @@
         <v>2433570</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>15.4328</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>37556799</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>15.4328</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>651250</v>
@@ -2931,10 +2930,10 @@
         <v>2529865</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>15.3951</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>38947629</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>15.3951</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>562036</v>
@@ -2953,10 +2952,10 @@
         <v>2403910</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>14.8154</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>35614953</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>14.8154</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>488977</v>
@@ -2975,10 +2974,10 @@
         <v>2359820</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>14.9606</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>35304287</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>14.9606</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>447092</v>
@@ -2997,10 +2996,10 @@
         <v>2060209</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>14.3543</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>29572949</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>14.3543</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>452066</v>
@@ -3019,10 +3018,10 @@
         <v>2022311</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>14.2596</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>28837337</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>14.2596</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>387459</v>
@@ -3041,10 +3040,10 @@
         <v>2034636</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.1301</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>28749585</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.1301</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>357825</v>
@@ -3063,10 +3062,10 @@
         <v>1929646</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>14.3658</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>27720834</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>14.3658</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>302369</v>
@@ -3085,10 +3084,10 @@
         <v>1910505</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>13.8219</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>26406813</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>13.8219</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>319356</v>
@@ -3107,10 +3106,10 @@
         <v>1977882</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>13.3692</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>26442656</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>13.3692</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>322976</v>
@@ -3129,10 +3128,10 @@
         <v>2074645</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>12.1248</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>25154572</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>12.1248</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>243421</v>
@@ -3151,10 +3150,10 @@
         <v>1903086</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>12.7371</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>24239738</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>12.7371</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>211457</v>
@@ -3173,10 +3172,10 @@
         <v>1920491</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>12.6977</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>24385874</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>12.6977</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>227858</v>
@@ -3195,10 +3194,10 @@
         <v>1883016</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>12.6215</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>23766420</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>12.6215</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>204814</v>
@@ -3217,10 +3216,10 @@
         <v>1858276</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.8329</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>21988860</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.8329</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>176485</v>
@@ -3239,10 +3238,10 @@
         <v>1953613</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.2235</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>21926466</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.2235</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>174120</v>
@@ -3261,10 +3260,10 @@
         <v>1903959</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.0907</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>21116168</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.0907</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>201089</v>
@@ -3283,10 +3282,10 @@
         <v>1844136</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>12.0102</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>22148511</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>12.0102</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>158189</v>
@@ -3305,10 +3304,10 @@
         <v>1751501</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.1778</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>19577867</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.1778</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>118189</v>
@@ -3327,10 +3326,10 @@
         <v>1902244</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.0991</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>21113283</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.0991</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>131249</v>
@@ -3349,10 +3348,10 @@
         <v>1931648</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.0044</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>21256722</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.0044</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>75323</v>
@@ -3371,10 +3370,10 @@
         <v>1929536</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>10.8284</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>20893875</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>10.8284</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>101110</v>
@@ -3392,10 +3391,10 @@
         <v>1887116</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>10.6461</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>20090471</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>10.6461</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>79294</v>
@@ -3413,10 +3412,10 @@
         <v>1931300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>9.9156</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>19149955</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>9.9156</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>104258</v>
@@ -3434,10 +3433,10 @@
         <v>1949609</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10.063</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>19618819</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10.063</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>87057</v>
@@ -3455,10 +3454,10 @@
         <v>1967362</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>9.750299999999999</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>19182440</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>9.750299999999999</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>93373</v>
@@ -3476,10 +3475,10 @@
         <v>1995266</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>9.591299999999999</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>19137184</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>9.591299999999999</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>78164</v>
@@ -3497,10 +3496,10 @@
         <v>1955516</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>9.126700000000001</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>17847421</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>9.126700000000001</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>77149</v>
@@ -3787,8 +3786,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3883,7 +3882,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, mainland</t>
+          <t>China, Continental</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3925,7 +3924,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Algeria</t>
+          <t>Argelia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3939,7 +3938,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Brasil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3953,7 +3952,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Russian Federation</t>
+          <t>Federación de Rusia</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3967,7 +3966,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3981,7 +3980,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistan</t>
+          <t>Uzbekistán</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3995,7 +3994,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistan</t>
+          <t>Pakistán</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4023,43 +4022,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1428910.28</v>
+        <v>22022497.24000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.01361747902910713</v>
+        <v>0.2098738447974983</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>20593586.96000001</v>
+        <v>104932071.27</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.1962563657683911</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>104932071.27</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4070,41 +4061,40 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
+      <c r="B26" s="12" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="35" t="n"/>
+      <c r="C28" s="33" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="35" t="n"/>
+      <c r="C29" s="33" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="35" t="n"/>
+      <c r="C30" s="33" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="35" t="n"/>
+      <c r="C31" s="33" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="35" t="n"/>
+      <c r="C32" s="33" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="35" t="n"/>
+      <c r="C33" s="33" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="35" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4126,7 +4116,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4225,7 +4215,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>México</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4239,7 +4229,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4253,7 +4243,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Italia</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4267,7 +4257,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Morocco</t>
+          <t>Marruecos</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4281,7 +4271,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4295,7 +4285,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Iran (Islamic Republic of)</t>
+          <t>Irán (República Islámica del)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4309,7 +4299,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4323,7 +4313,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Grecia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4408,124 +4398,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="36" t="n"/>
+      <c r="D26" s="35" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="36" t="n"/>
+      <c r="D27" s="35" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="36" t="n"/>
+      <c r="D28" s="35" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="36" t="n"/>
+      <c r="D29" s="35" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="36" t="n"/>
+      <c r="D30" s="35" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="36" t="n"/>
+      <c r="D31" s="35" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="36" t="n"/>
+      <c r="D32" s="35" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="36" t="n"/>
+      <c r="D33" s="35" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="36" t="n"/>
+      <c r="D34" s="35" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="D35" s="35" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="D36" s="35" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="37" t="n"/>
+      <c r="D37" s="36" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="37" t="n"/>
+      <c r="D38" s="36" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="37" t="n"/>
+      <c r="D39" s="36" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="37" t="n"/>
+      <c r="D40" s="36" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="37" t="n"/>
+      <c r="D41" s="36" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="37" t="n"/>
+      <c r="D42" s="36" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="37" t="n"/>
+      <c r="D43" s="36" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="37" t="n"/>
+      <c r="D44" s="36" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="37" t="n"/>
+      <c r="D45" s="36" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4547,8 +4537,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4643,7 +4633,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>United States of America</t>
+          <t>Estados Unidos de América</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4657,7 +4647,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Alemania</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4685,7 +4675,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Francia</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4699,7 +4689,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>United Arab Emirates</t>
+          <t>Emiratos Árabes Unidos</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4713,7 +4703,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Canadá</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4727,7 +4717,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Netherlands (Kingdom of the)</t>
+          <t>Países Bajos (Reino de los)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4741,7 +4731,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Polonia</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4755,7 +4745,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>United Kingdom of Great Britain and Northern Ireland</t>
+          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4769,7 +4759,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>España</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4783,43 +4773,35 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Otros</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>19855.17</v>
+        <v>1421217.720000001</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.004359600080610301</v>
+        <v>0.3120568036776715</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C23" s="29" t="n">
-        <v>1401362.550000001</v>
+        <v>4554355.82</v>
       </c>
       <c r="D23" s="31" t="n">
-        <v>0.3076972035970612</v>
+        <v>1</v>
       </c>
       <c r="E23" s="29" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" s="29" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="C24" s="29" t="n">
-        <v>4554355.82</v>
-      </c>
-      <c r="D24" s="31" t="n">
-        <v>1</v>
-      </c>
+      <c r="B24" s="29" t="n"/>
+      <c r="C24" s="29" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4829,60 +4811,59 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="29" t="n"/>
-      <c r="C26" s="33" t="n"/>
-      <c r="D26" s="31" t="n"/>
-      <c r="E26" s="29" t="n"/>
+      <c r="B26" s="15" t="n"/>
+      <c r="C26" s="37" t="n"/>
+      <c r="D26" s="34" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="38" t="n"/>
+      <c r="C27" s="37" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="38" t="n"/>
+      <c r="C28" s="37" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="38" t="n"/>
+      <c r="C29" s="37" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="38" t="n"/>
+      <c r="C30" s="37" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="38" t="n"/>
+      <c r="C31" s="37" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="38" t="n"/>
+      <c r="C32" s="37" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="38" t="n"/>
+      <c r="C33" s="37" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="38" t="n"/>
+      <c r="C34" s="37" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="38" t="n"/>
-      <c r="D35" s="37" t="n"/>
+      <c r="C35" s="37" t="n"/>
+      <c r="D35" s="36" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="38" t="n"/>
-      <c r="D36" s="37" t="n"/>
+      <c r="C36" s="37" t="n"/>
+      <c r="D36" s="36" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4951,7 +4932,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5030,10 +5011,10 @@
         <v>1488028</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>42.8899</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>63821304.29</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>42.8899</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>73607.42</v>
@@ -5052,10 +5033,10 @@
         <v>1484820</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>42.4449</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>63023100</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>42.4449</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>68410.67</v>
@@ -5074,10 +5055,10 @@
         <v>1475550</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>41.7702</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>61634000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>41.7702</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>55810.72</v>
@@ -5096,10 +5077,10 @@
         <v>1528150</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>40.7968</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>62343600</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>40.7968</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>97442</v>
@@ -5118,10 +5099,10 @@
         <v>1539370</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>39.5365</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>60861241</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>39.5365</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>272823.67</v>
@@ -5140,10 +5121,10 @@
         <v>1517930</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>40.54</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>61536900</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>40.54</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>219944.84</v>
@@ -5162,10 +5143,10 @@
         <v>1519720</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>41.5519</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>63147220</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>41.5519</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>188324</v>
@@ -5184,10 +5165,10 @@
         <v>1515060</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>41.05880000000001</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>62206500</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>41.05880000000001</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>204199.31</v>
@@ -5206,10 +5187,10 @@
         <v>1548230</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>40.4794</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>62671400</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>40.4794</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>200763.84</v>
@@ -5228,10 +5209,10 @@
         <v>1556890</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>39.4961</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>61491100</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>39.4961</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>214613.8</v>
@@ -5250,10 +5231,10 @@
         <v>1568530</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>38.8967</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>61010700</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>38.8967</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>249718</v>
@@ -5272,10 +5253,10 @@
         <v>1561280</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>38.6166</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>60291300</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>38.6166</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>420137</v>
@@ -5294,10 +5275,10 @@
         <v>1606000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>37.3624</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>60004000</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>37.3624</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>398129</v>
@@ -5316,10 +5297,10 @@
         <v>1640750</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>36.8795</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>60510100</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>36.8795</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>313260</v>
@@ -5338,10 +5319,10 @@
         <v>1575050</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>36.6399</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>57709700</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>36.6399</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>263674</v>
@@ -5360,10 +5341,10 @@
         <v>1597360</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>36.00080000000001</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>57506200</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>36.00080000000001</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>222739</v>
@@ -5382,10 +5363,10 @@
         <v>1622760</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>33.741</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>54753500</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>33.741</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>167017</v>
@@ -5404,10 +5385,10 @@
         <v>1752610</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>35.2875</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>61845200</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>35.2875</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>144345</v>
@@ -5426,10 +5407,10 @@
         <v>1707460</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>35.0775</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>59893432</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>35.0775</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>132191</v>
@@ -5448,10 +5429,10 @@
         <v>1660050</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>34.64680000000001</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>57515420</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>34.64680000000001</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>65992</v>
@@ -5470,10 +5451,10 @@
         <v>1836270</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>31.587</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>58002352</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>31.587</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>44592</v>
@@ -5492,10 +5473,10 @@
         <v>1846830</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>33.3585</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>61607500</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>33.3585</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>67473</v>
@@ -5514,10 +5495,10 @@
         <v>1822340</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>31.3763</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>57178300</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>31.3763</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>20517</v>
@@ -5536,10 +5517,10 @@
         <v>1625350</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>31.6648</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>51466312</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>31.6648</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>5488.65</v>
@@ -5558,10 +5539,10 @@
         <v>1421300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>32.4807</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>46164884</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>32.4807</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7220</v>
@@ -5580,10 +5561,10 @@
         <v>1314760</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>26.9895</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>35484684</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>26.9895</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>13879</v>
@@ -5602,10 +5583,10 @@
         <v>1054380</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>32.9121</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>34701868</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>32.9121</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4766</v>
@@ -5624,10 +5605,10 @@
         <v>960670</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>24.4378</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>23476646</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>24.4378</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>5257</v>
@@ -5646,10 +5627,10 @@
         <v>864760</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>21.4163</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>18520000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>21.4163</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1871</v>
@@ -5668,10 +5649,10 @@
         <v>851000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>20.094</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17100000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>20.094</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>214</v>
@@ -5690,10 +5671,10 @@
         <v>870000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>19.5402</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>17000000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>19.5402</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>672</v>
@@ -5712,10 +5693,10 @@
         <v>700000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>20.2857</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>14200000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>20.2857</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>150</v>
@@ -5734,10 +5715,10 @@
         <v>588000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>19.0476</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>11200000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>19.0476</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>100</v>
@@ -5756,10 +5737,10 @@
         <v>555000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>19.2793</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>10700000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>19.2793</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>398</v>
@@ -5778,10 +5759,10 @@
         <v>700000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>17.7143</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12400000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>17.7143</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>98</v>
@@ -5800,10 +5781,10 @@
         <v>833000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>17.0468</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>14200000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>17.0468</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>158</v>
@@ -5822,10 +5803,10 @@
         <v>818000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>16.8704</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>13800000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>16.8704</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>511</v>
@@ -5844,10 +5825,10 @@
         <v>734000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>16.8937</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12400000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>16.8937</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5866,10 +5847,10 @@
         <v>708000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>16.8079</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11900000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>16.8079</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5888,10 +5869,10 @@
         <v>477000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>15.9329</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7600000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>15.9329</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5910,10 +5891,10 @@
         <v>425000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>16</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6800000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>16</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5932,10 +5913,10 @@
         <v>405000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>14.7778</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>5985000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>14.7778</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5954,10 +5935,10 @@
         <v>365000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>16.3973</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>5985000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>16.3973</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5976,10 +5957,10 @@
         <v>335000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>15.3134</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>5130000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>15.3134</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5998,10 +5979,10 @@
         <v>340000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>15.8088</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5375000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>15.8088</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6020,10 +6001,10 @@
         <v>350000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>15.7143</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5500000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>15.7143</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6042,10 +6023,10 @@
         <v>310000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>16.5806</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5140000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>16.5806</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6064,10 +6045,10 @@
         <v>300000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>4980000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>16.6</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6086,10 +6067,10 @@
         <v>300000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>16.6</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>4980000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>16.6</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6108,10 +6089,10 @@
         <v>290000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>16.6207</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>4820000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>16.6207</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6130,10 +6111,10 @@
         <v>300000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.9</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>4770000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.9</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6152,10 +6133,10 @@
         <v>270000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>15.8148</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>4270000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>15.8148</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6174,10 +6155,10 @@
         <v>290000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16.7931</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>4870000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16.7931</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6196,10 +6177,10 @@
         <v>265000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>16.6415</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>4410000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>16.6415</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6218,10 +6199,10 @@
         <v>375000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>15.7333</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>5900000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>15.7333</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6240,10 +6221,10 @@
         <v>375000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>15.2</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>5700000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>15.2</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6262,10 +6243,10 @@
         <v>395000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>13.9241</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>5500000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>13.9241</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6283,10 +6264,10 @@
         <v>395000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>13.7215</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>5420000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>13.7215</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6304,10 +6285,10 @@
         <v>410000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>13.1707</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>5400000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>13.1707</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6325,10 +6306,10 @@
         <v>410000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>12.561</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>5150000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>12.561</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6346,10 +6327,10 @@
         <v>460000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>12.6522</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>5820000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>12.6522</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6367,10 +6348,10 @@
         <v>530000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>12.3019</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6520000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>12.3019</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6388,10 +6369,10 @@
         <v>530000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.2642</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>6500000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.2642</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6727,7 +6708,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6806,10 +6787,10 @@
         <v>126000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>28.7778</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3626000</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>28.7778</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>15.3</v>
@@ -6828,10 +6809,10 @@
         <v>120000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>27.5667</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3308000</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>27.5667</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4.01</v>
@@ -6850,10 +6831,10 @@
         <v>119000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>27.3445</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3254000</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>27.3445</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>306.82</v>
@@ -6872,10 +6853,10 @@
         <v>116000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>27.2155</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3157000</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>27.2155</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>318.97</v>
@@ -6894,10 +6875,10 @@
         <v>100000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>24.95</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2495000</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>24.95</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.8</v>
@@ -6916,10 +6897,10 @@
         <v>101000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>24.9505</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2520000</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>24.9505</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>29.09</v>
@@ -6938,10 +6919,10 @@
         <v>91000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>23.978</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2182000</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>23.978</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.73</v>
@@ -6960,10 +6941,10 @@
         <v>95000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>24.4737</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2325000</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>24.4737</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.18</v>
@@ -6982,10 +6963,10 @@
         <v>89000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>24.1011</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2145000</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>24.1011</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7.18</v>
@@ -7004,10 +6985,10 @@
         <v>75000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>24.1333</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1810000</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>24.1333</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -7024,10 +7005,10 @@
         <v>81000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>22.0864</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1789000</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>22.0864</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -7046,10 +7027,10 @@
         <v>71000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>24.3239</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1727000</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>24.3239</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1</v>
@@ -7068,10 +7049,10 @@
         <v>67400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>21.3131</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1436500</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>21.3131</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7090,10 +7071,10 @@
         <v>26753</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>13.8071</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>369379.51</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>13.8071</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7112,10 +7093,10 @@
         <v>26080</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>13.729</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>358052.2</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>13.729</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7134,10 +7115,10 @@
         <v>25409</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>13.6494</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>346812.15</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>13.6494</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7156,10 +7137,10 @@
         <v>24737</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>13.5691</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>335665.99</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>13.5691</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7178,10 +7159,10 @@
         <v>24066</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>13.4891</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>324625.31</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>13.4891</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -7200,10 +7181,10 @@
         <v>23393</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>13.4103</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>313709.08</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>13.4103</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>18</v>
@@ -7222,10 +7203,10 @@
         <v>22771</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>13.2595</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>301927.37</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>13.2595</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>163</v>
@@ -7244,10 +7225,10 @@
         <v>22078</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>13.2053</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>291544.24</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>13.2053</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>52</v>
@@ -7266,10 +7247,10 @@
         <v>21383</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>13.148</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>281146.77</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>13.148</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>119</v>
@@ -7288,10 +7269,10 @@
         <v>20687</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>13.094</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>270876.94</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>13.094</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>168</v>
@@ -7310,10 +7291,10 @@
         <v>20000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>255000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>12.75</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>20</v>
@@ -7332,10 +7313,10 @@
         <v>19574</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>13.0551</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>255539.66</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>13.0551</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>64.19</v>
@@ -7354,10 +7335,10 @@
         <v>19076</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>13.0538</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>249017.81</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>13.0538</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7374,10 +7355,10 @@
         <v>19000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>13.1579</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>250000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>13.1579</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -7394,10 +7375,10 @@
         <v>17300</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>13.0058</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>225000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>13.0058</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7414,10 +7395,10 @@
         <v>17000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>12.9412</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>220000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>12.9412</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -7432,10 +7413,10 @@
         <v>16800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>12.7976</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>215000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>12.7976</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -7450,10 +7431,10 @@
         <v>16500</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>12.7273</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>210000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>12.7273</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -7468,10 +7449,10 @@
         <v>16300</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>12.7607</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>208000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>12.7607</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -7486,10 +7467,10 @@
         <v>16194</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>12.7146</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>205900</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>12.7146</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -7504,10 +7485,10 @@
         <v>16000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>200000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>12.5</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -7522,10 +7503,10 @@
         <v>15700</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12.5478</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>197000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12.5478</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -7540,10 +7521,10 @@
         <v>15500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>12.5806</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>195000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>12.5806</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -7558,10 +7539,10 @@
         <v>15000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>12.5333</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>188000</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>12.5333</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -7576,10 +7557,10 @@
         <v>14700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12.517</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>184000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12.517</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -7594,10 +7575,10 @@
         <v>14300</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11.8881</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>170000</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11.8881</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -7612,10 +7593,10 @@
         <v>14000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>11.7857</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>165000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>11.7857</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -7630,10 +7611,10 @@
         <v>13500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>11.8519</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>160000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>11.8519</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -7648,10 +7629,10 @@
         <v>13000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>11.7692</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>153000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>11.7692</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -7666,10 +7647,10 @@
         <v>12400</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>11.6935</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>145000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>11.6935</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -7684,10 +7665,10 @@
         <v>12000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>11.6667</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>140000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>11.6667</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -7702,10 +7683,10 @@
         <v>11500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>11.5652</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>133000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>11.5652</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -7720,10 +7701,10 @@
         <v>11000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>11.6364</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>128000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>11.6364</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -7738,10 +7719,10 @@
         <v>10900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>11.5596</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>126000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>11.5596</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -7756,10 +7737,10 @@
         <v>10700</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>11.6822</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>11.6822</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -7774,10 +7755,10 @@
         <v>10500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>120000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -7792,10 +7773,10 @@
         <v>10200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>11.5686</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>118000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>11.5686</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -7810,10 +7791,10 @@
         <v>10000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>11.6</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>116000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>11.6</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -7828,10 +7809,10 @@
         <v>9900</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>11.5152</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>114000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>11.5152</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -7846,10 +7827,10 @@
         <v>9500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>11.4737</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>109000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>11.4737</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -7864,10 +7845,10 @@
         <v>8900</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>11.4607</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>102000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>11.4607</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -7882,10 +7863,10 @@
         <v>8700</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>11.4943</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>100000</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>11.4943</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -7900,10 +7881,10 @@
         <v>8400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>11.4286</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>96000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>11.4286</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -7918,10 +7899,10 @@
         <v>8000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>11.125</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>89000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>11.125</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -7935,10 +7916,10 @@
         <v>7900</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>11.1392</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>88000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>11.1392</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -7952,10 +7933,10 @@
         <v>7600</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>11.1842</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>85000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>11.1842</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -7969,10 +7950,10 @@
         <v>7500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>10.6667</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>80000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>10.6667</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -7986,10 +7967,10 @@
         <v>7000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>11</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>77000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>11</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -8003,10 +7984,10 @@
         <v>6800</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>11.0294</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>75000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>11.0294</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -8020,10 +8001,10 @@
         <v>6500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>10.9231</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>71000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>10.9231</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -8355,7 +8336,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8434,10 +8415,10 @@
         <v>64070</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>49.1325</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>3147921</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>49.1325</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>43565.3</v>
@@ -8456,10 +8437,10 @@
         <v>69021</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>49.1848</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>3394783</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>49.1848</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>55433</v>
@@ -8478,10 +8459,10 @@
         <v>72949</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>47.5499</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>3468717</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>47.5499</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>62596.37</v>
@@ -8500,10 +8481,10 @@
         <v>74035</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>47.1609</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>3491554</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>47.1609</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>32567.05</v>
@@ -8522,10 +8503,10 @@
         <v>83366</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>46.428</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>3870515</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>46.428</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>86988.89999999999</v>
@@ -8544,10 +8525,10 @@
         <v>86361</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>46.6782</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>4031174</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>46.6782</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>62373.6</v>
@@ -8566,10 +8547,10 @@
         <v>90488</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>44.32980000000001</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>4011313</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>44.32980000000001</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>35059.85</v>
@@ -8588,10 +8569,10 @@
         <v>91993</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>42.7086</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>3928892</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>42.7086</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>23973.85</v>
@@ -8610,10 +8591,10 @@
         <v>93546</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>41.8891</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>3918558</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>41.8891</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>27814.42</v>
@@ -8632,10 +8613,10 @@
         <v>95463</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>40.7029</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>3885617</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>40.7029</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>28856</v>
@@ -8654,10 +8635,10 @@
         <v>97946</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>39.6884</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>3887324</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>39.6884</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>25316</v>
@@ -8676,10 +8657,10 @@
         <v>97732</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>41.1564</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>4022296</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>41.1564</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>16703</v>
@@ -8698,10 +8679,10 @@
         <v>97964</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>39.4481</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>3864489</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>39.4481</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>17565</v>
@@ -8720,10 +8701,10 @@
         <v>95660</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>38.502</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>3683103</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>38.502</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>5731</v>
@@ -8742,10 +8723,10 @@
         <v>99721</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>38.2087</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>3810205</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>38.2087</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10154</v>
@@ -8764,10 +8745,10 @@
         <v>109611</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>36.5135</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>4002285</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>36.5135</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>6302</v>
@@ -8786,10 +8767,10 @@
         <v>108208</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>35.0869</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>3796680</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>35.0869</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3057</v>
@@ -8808,10 +8789,10 @@
         <v>109022</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>34.904</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>3805306</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>34.904</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4139</v>
@@ -8830,10 +8811,10 @@
         <v>116546</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>34.0638</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>3970000</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>34.0638</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>249</v>
@@ -8852,10 +8833,10 @@
         <v>117074</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>32.6716</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>3825000</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>32.6716</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>107</v>
@@ -8874,10 +8855,10 @@
         <v>127448</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>33.07230000000001</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>4215000</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>33.07230000000001</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>134</v>
@@ -8896,10 +8877,10 @@
         <v>134031</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>34.1339</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>4575000</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>34.1339</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>18</v>
@@ -8918,10 +8899,10 @@
         <v>125018</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>32.1554</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>4020000</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>32.1554</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>15</v>
@@ -8940,10 +8921,10 @@
         <v>124717</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>31.5915</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>3940000</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>31.5915</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>83.63</v>
@@ -8962,10 +8943,10 @@
         <v>125944</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>31.2202</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>3932000</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>31.2202</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>54</v>
@@ -8984,10 +8965,10 @@
         <v>126800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>30.9937</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>3930000</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>30.9937</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1070</v>
@@ -9006,10 +8987,10 @@
         <v>127988</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>29.6903</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>3800000</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>29.6903</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>164</v>
@@ -9028,10 +9009,10 @@
         <v>136709</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>28.5277</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>3900000</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>28.5277</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8341</v>
@@ -9050,10 +9031,10 @@
         <v>136127</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>26.4459</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>3600000</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>26.4459</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>39</v>
@@ -9072,10 +9053,10 @@
         <v>141910</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>25.7205</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>3650000</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>25.7205</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>131</v>
@@ -9094,10 +9075,10 @@
         <v>120968</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>26.8666</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>3250000</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>26.8666</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>13060</v>
@@ -9116,10 +9097,10 @@
         <v>153128</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>24.0322</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>3680000</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>24.0322</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>528</v>
@@ -9138,10 +9119,10 @@
         <v>128653</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>29.6923</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>3820000</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>29.6923</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>15</v>
@@ -9160,10 +9141,10 @@
         <v>102845</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>32.0871</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>3300000</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>32.0871</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>13441</v>
@@ -9182,10 +9163,10 @@
         <v>122240</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>24.5419</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>24.5419</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>91</v>
@@ -9204,10 +9185,10 @@
         <v>125000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>26.4</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>3300000</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>26.4</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>242</v>
@@ -9226,10 +9207,10 @@
         <v>130000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>26.3296</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>3422854</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>26.3296</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>18</v>
@@ -9248,10 +9229,10 @@
         <v>130000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>23.0769</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>23.0769</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9270,10 +9251,10 @@
         <v>130000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>26.3237</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>3422087</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>26.3237</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9292,10 +9273,10 @@
         <v>146000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>21.2329</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>3100000</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>21.2329</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9314,10 +9295,10 @@
         <v>153000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>20.3268</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>3110000</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>20.3268</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9336,10 +9317,10 @@
         <v>151400</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>20.4756</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>3100000</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>20.4756</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9358,10 +9339,10 @@
         <v>146000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>20.5479</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>20.5479</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9380,10 +9361,10 @@
         <v>154000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>19.4805</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>3000000</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>19.4805</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9402,10 +9383,10 @@
         <v>152000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>22.8289</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>3470000</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>22.8289</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9424,10 +9405,10 @@
         <v>143000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>17.8322</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>2550000</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>17.8322</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9446,10 +9427,10 @@
         <v>132000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>18.2576</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>2410000</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>18.2576</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9468,10 +9449,10 @@
         <v>141000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>20.5674</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>2900000</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>20.5674</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9490,10 +9471,10 @@
         <v>140000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>18.5714</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>2600000</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>18.5714</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9512,10 +9493,10 @@
         <v>141000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>17.0213</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>2400000</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>17.0213</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9534,10 +9515,10 @@
         <v>133000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>15.4135</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2050000</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>15.4135</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9556,10 +9537,10 @@
         <v>127000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>17.3228</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2200000</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>17.3228</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9578,10 +9559,10 @@
         <v>125000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>16.8</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9600,10 +9581,10 @@
         <v>124000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2170000</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9622,10 +9603,10 @@
         <v>120000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>17.5003</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2100040</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>17.5003</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9644,10 +9625,10 @@
         <v>120000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>18</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2160000</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>18</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9666,10 +9647,10 @@
         <v>124000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>16.8468</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2089000</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>16.8468</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9687,10 +9668,10 @@
         <v>120000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2100000</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>17.5</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9708,10 +9689,10 @@
         <v>120000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1980000</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>16.5</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9729,10 +9710,10 @@
         <v>120000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>1980000</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>16.5</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9750,10 +9731,10 @@
         <v>120467</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>14.9751</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>1804000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>14.9751</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9771,10 +9752,10 @@
         <v>131000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>13.6031</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>1782000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>13.6031</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9792,10 +9773,10 @@
         <v>137000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>12.4088</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>1700000</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>12.4088</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10131,7 +10112,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10210,10 +10191,10 @@
         <v>63258</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>39.6337</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>2507140.41</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>39.6337</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.72</v>
@@ -10232,10 +10213,10 @@
         <v>55834</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>37.1501</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>2074242.92</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>37.1501</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10252,10 +10233,10 @@
         <v>59462</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>34.9107</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2075874</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>34.9107</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10272,10 +10253,10 @@
         <v>61000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>37.4884</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2286809.1</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>37.4884</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -10290,10 +10271,10 @@
         <v>62673</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>35.2124</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2206866</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>35.2124</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1.5</v>
@@ -10312,10 +10293,10 @@
         <v>60400</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>34.6978</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2095757.49</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>34.6978</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.05</v>
@@ -10334,10 +10315,10 @@
         <v>57343</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>32.9818</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>1891273.8</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>32.9818</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10354,10 +10335,10 @@
         <v>59039</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>31.804</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>1877677</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>31.804</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10374,10 +10355,10 @@
         <v>58120</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>31.2188</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>1814435</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>31.2188</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>77.17</v>
@@ -10396,10 +10377,10 @@
         <v>54427</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>29.6599</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>1614301</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>29.6599</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>355.26</v>
@@ -10416,10 +10397,10 @@
         <v>56254</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>26.6747</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>1500559</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>26.6747</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2115</v>
@@ -10438,10 +10419,10 @@
         <v>54626</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>27.3694</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>1495081</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>27.3694</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>5205</v>
@@ -10460,10 +10441,10 @@
         <v>50759</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>25.3183</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>1285134</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>25.3183</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2283</v>
@@ -10482,10 +10463,10 @@
         <v>49455</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>24.7451</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>1223767</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>24.7451</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3855</v>
@@ -10504,10 +10485,10 @@
         <v>44791</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>23.1011</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>1034722</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>23.1011</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4151</v>
@@ -10526,10 +10507,10 @@
         <v>44301</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>19.0657</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>844631</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>19.0657</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1960</v>
@@ -10548,10 +10529,10 @@
         <v>43664</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>18.6805</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>815665</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>18.6805</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>198</v>
@@ -10570,10 +10551,10 @@
         <v>43290</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>18.1387</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>785224</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>18.1387</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>74</v>
@@ -10592,10 +10573,10 @@
         <v>42844</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>20.0248</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>857942</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>20.0248</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>8</v>
@@ -10614,10 +10595,10 @@
         <v>39506</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>18.2599</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>721376</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>18.2599</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10636,10 +10617,10 @@
         <v>34550</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>18.23</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>629847</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>18.23</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5</v>
@@ -10658,10 +10639,10 @@
         <v>29130</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>15.7268</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>458123</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>15.7268</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>5</v>
@@ -10680,10 +10661,10 @@
         <v>31900</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>14.5421</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>463892</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>14.5421</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>17</v>
@@ -10702,10 +10683,10 @@
         <v>28980</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>13.7575</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>398691</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>13.7575</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10722,10 +10703,10 @@
         <v>35180</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>15.3015</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>538308</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>15.3015</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10742,10 +10723,10 @@
         <v>33080</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>15.1758</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>502016</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>15.1758</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -10762,10 +10743,10 @@
         <v>29950</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>13.399</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>401300</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>13.399</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -10782,10 +10763,10 @@
         <v>36280</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>12.5512</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>455358</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>12.5512</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -10802,10 +10783,10 @@
         <v>34920</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>11.552</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>403396</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>11.552</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -10822,10 +10803,10 @@
         <v>34910</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>11.4915</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>401168</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>11.4915</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -10842,10 +10823,10 @@
         <v>35260</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>13.8984</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>490058</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>13.8984</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -10862,10 +10843,10 @@
         <v>38890</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>11.4998</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>447228</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>11.4998</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -10882,10 +10863,10 @@
         <v>35700</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>10.4066</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>371515</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>10.4066</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -10902,10 +10883,10 @@
         <v>31980</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>8.259</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>264124</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>8.259</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -10922,10 +10903,10 @@
         <v>31160</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>9.655799999999999</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>300874</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>9.655799999999999</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -10942,10 +10923,10 @@
         <v>32570</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>7.1243</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>232040</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>7.1243</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -10962,10 +10943,10 @@
         <v>35060</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>10.269</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>360030</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>10.269</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -10982,10 +10963,10 @@
         <v>40040</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>7.9343</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>317690</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>7.9343</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -11002,10 +10983,10 @@
         <v>40740</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>7.8116</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>318243</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>7.8116</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11022,10 +11003,10 @@
         <v>32730</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7.4236</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>242976</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7.4236</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11042,10 +11023,10 @@
         <v>32170</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6.4327</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>206941</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6.4327</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>887</v>
@@ -11062,10 +11043,10 @@
         <v>29910</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>6.460100000000001</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>193222</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>6.460100000000001</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11082,10 +11063,10 @@
         <v>29460</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>6.083600000000001</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>179222</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>6.083600000000001</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11102,10 +11083,10 @@
         <v>28350</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>6.0829</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>172450</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>6.0829</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11122,10 +11103,10 @@
         <v>27030</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5.8738</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>158769</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5.8738</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11142,10 +11123,10 @@
         <v>25680</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5.5318</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>142056</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5.5318</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11162,10 +11143,10 @@
         <v>26490</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5.2125</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>138080</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5.2125</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11182,10 +11163,10 @@
         <v>23140</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>6.6203</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>153193</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>6.6203</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11202,10 +11183,10 @@
         <v>21950</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>13.3776</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>293638</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>13.3776</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11222,10 +11203,10 @@
         <v>20770</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>8.4169</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>174818</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>8.4169</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1747</v>
@@ -11242,10 +11223,10 @@
         <v>20400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>7.3488</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>149915</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>7.3488</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1997</v>
@@ -11262,10 +11243,10 @@
         <v>22110</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>7.0365</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>155577</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>7.0365</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1222</v>
@@ -11282,10 +11263,10 @@
         <v>21610</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>9.169700000000001</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>198157</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>9.169700000000001</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>982</v>
@@ -11302,10 +11283,10 @@
         <v>21130</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>8.977</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>189684</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>8.977</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11322,10 +11303,10 @@
         <v>21520</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>9.049299999999999</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>194741</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>9.049299999999999</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>772</v>
@@ -11342,10 +11323,10 @@
         <v>21500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>8.2781</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>177980</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>8.2781</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11362,10 +11343,10 @@
         <v>18590</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>7.2983</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>135676</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>7.2983</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11381,10 +11362,10 @@
         <v>17270</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>8.226100000000001</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>142065</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>8.226100000000001</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11400,10 +11381,10 @@
         <v>24820</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>6.3876</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>158541</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>6.3876</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3000</v>
@@ -11419,10 +11400,10 @@
         <v>18120</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>6.552899999999999</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>118739</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>6.552899999999999</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1000</v>
@@ -11438,10 +11419,10 @@
         <v>18000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>7.3333</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>132000</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>7.3333</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1000</v>
@@ -11457,10 +11438,10 @@
         <v>18000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6.9444</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>125000</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6.9444</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3000</v>
@@ -11476,10 +11457,10 @@
         <v>16010</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>8.1593</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>130630</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>8.1593</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>9000</v>
@@ -11813,7 +11794,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial</t>
+          <t>Estadísticas del mercado mundial de (Producto)</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11892,10 +11873,10 @@
         <v>80833</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>22.0451</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>1781971</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>22.0451</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11912,10 +11893,10 @@
         <v>84733</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>22.813</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>1933015</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>22.813</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11932,10 +11913,10 @@
         <v>91922</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>23.302</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>2141970</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>23.302</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11952,10 +11933,10 @@
         <v>98241</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>22.2302</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>2183918</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>22.2302</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11972,10 +11953,10 @@
         <v>98946</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>23.1656</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>2292141</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>23.1656</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -11992,10 +11973,10 @@
         <v>101980</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>22.0043</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>2244001</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>22.0043</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -12012,10 +11993,10 @@
         <v>103204</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>22.4119</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>2312993</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>22.4119</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -12032,10 +12013,10 @@
         <v>90316</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>23.1194</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>2088048</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>23.1194</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -12052,10 +12033,10 @@
         <v>95965</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>22.0868</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>2119559</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>22.0868</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>18</v>
@@ -12074,10 +12055,10 @@
         <v>94375</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>23.0087</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>2171448</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>23.0087</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12094,10 +12075,10 @@
         <v>92021</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>23.5109</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>2163501</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>23.5109</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12116,10 +12097,10 @@
         <v>94612</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>21.9797</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>2079547</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>21.9797</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12138,10 +12119,10 @@
         <v>97718</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>22.4997</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>2198624</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>22.4997</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12160,10 +12141,10 @@
         <v>94946</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>21.6221</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>2052928</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>21.6221</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12182,10 +12163,10 @@
         <v>93726</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>22.0341</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>2065167</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>22.0341</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12204,10 +12185,10 @@
         <v>88189</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>22.6242</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>1995206</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>22.6242</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12226,10 +12207,10 @@
         <v>96556</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>21.6727</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>2092628</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>21.6727</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12248,10 +12229,10 @@
         <v>92996</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>20.9354</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>1946912</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>20.9354</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12270,10 +12251,10 @@
         <v>85461</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>19.1599</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>1637428</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>19.1599</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12292,10 +12273,10 @@
         <v>80889</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>21.2562</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>1719392</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>21.2562</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12314,10 +12295,10 @@
         <v>82285</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>23.161</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>1905800</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>23.161</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12336,10 +12317,10 @@
         <v>75389</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>19.7792</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>1491137</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>19.7792</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12358,10 +12339,10 @@
         <v>77409</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>18.7359</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>1450324</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>18.7359</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12380,10 +12361,10 @@
         <v>80509</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>8.450799999999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>680364</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>8.450799999999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>12.5</v>
@@ -12402,10 +12383,10 @@
         <v>80196</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>8.193200000000001</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>657060</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>8.193200000000001</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>39</v>
@@ -12424,10 +12405,10 @@
         <v>77022</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>7.7716</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>598587</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>7.7716</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>25</v>
@@ -12446,10 +12427,10 @@
         <v>81664</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>7.6495</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>624687</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>7.6495</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>89</v>
@@ -12468,10 +12449,10 @@
         <v>75301</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>7.1946</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>541758</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>7.1946</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>717</v>
@@ -12490,10 +12471,10 @@
         <v>79347</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>9.619</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>763236</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>9.619</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>422</v>
@@ -12512,10 +12493,10 @@
         <v>72213</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>6.203399999999999</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>447963</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>6.203399999999999</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12532,10 +12513,10 @@
         <v>67392</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>6.5509</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>441477</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>6.5509</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12552,10 +12533,10 @@
         <v>67907</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>5.837800000000001</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>396429</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>5.837800000000001</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12572,10 +12553,10 @@
         <v>71413</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>6.0554</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>432435</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>6.0554</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12592,10 +12573,10 @@
         <v>67986</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>6.430800000000001</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>437202</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>6.430800000000001</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12612,10 +12593,10 @@
         <v>67046</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>6.704</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>449478</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>6.704</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12632,10 +12613,10 @@
         <v>72927</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>6.423</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>468411</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>6.423</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12652,10 +12633,10 @@
         <v>73749</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>5.631699999999999</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>415332</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>5.631699999999999</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12672,10 +12653,10 @@
         <v>72488</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>4.7438</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>343872</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>4.7438</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12692,10 +12673,10 @@
         <v>74612</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>4.4887</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>334911</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>4.4887</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12712,10 +12693,10 @@
         <v>79391</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>4.4648</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>354462</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>4.4648</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12732,10 +12713,10 @@
         <v>74621</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>4.4291</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>330504</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>4.4291</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12752,10 +12733,10 @@
         <v>82158</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>4.1339</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>339630</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>4.1339</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12772,10 +12753,10 @@
         <v>74249</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3.8314</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>284478</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3.8314</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12792,10 +12773,10 @@
         <v>69739</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>4.227300000000001</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>294810</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>4.227300000000001</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12812,10 +12793,10 @@
         <v>66305</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>4.288600000000001</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>284355</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>4.288600000000001</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12832,10 +12813,10 @@
         <v>69429</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>4.0214</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>279201</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>4.0214</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -12852,10 +12833,10 @@
         <v>65039</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>3.6444</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>237027</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>3.6444</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -12872,10 +12853,10 @@
         <v>67378</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>3.2931</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>221883</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>3.2931</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -12892,10 +12873,10 @@
         <v>82719</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>3.3046</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>273354</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>3.3046</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -12912,10 +12893,10 @@
         <v>84706</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>3.1249</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>264696</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>3.1249</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -12932,10 +12913,10 @@
         <v>104123</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2.7535</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>286701</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2.7535</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -12952,10 +12933,10 @@
         <v>118636</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2.4033</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>285120</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2.4033</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -12972,10 +12953,10 @@
         <v>115748</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2.5967</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>300564</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2.5967</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -12992,10 +12973,10 @@
         <v>103429</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2.3915</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>247347</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2.3915</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -13012,10 +12993,10 @@
         <v>114767</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2.5349</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>290919</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2.5349</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -13032,10 +13013,10 @@
         <v>125971</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2.4777</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>312120</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2.4777</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -13052,10 +13033,10 @@
         <v>126831</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2.2541</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>285891</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2.2541</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13071,10 +13052,10 @@
         <v>112525</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2.2164</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>249399</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2.2164</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13090,10 +13071,10 @@
         <v>119650</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1.9793</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>236823</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1.9793</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13109,10 +13090,10 @@
         <v>117691</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>2.0965</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>246741</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>2.0965</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13128,10 +13109,10 @@
         <v>109275</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>2.1672</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>236817</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>2.1672</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13147,10 +13128,10 @@
         <v>112807</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>2.1289</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>240150</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>2.1289</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13166,10 +13147,10 @@
         <v>114382</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>2.1101</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>241353</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>2.1101</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">

--- a/Resultados/Mercado mundial - Sandías.xlsx
+++ b/Resultados/Mercado mundial - Sandías.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="3" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" tabRatio="898" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="China, Continental" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="India" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Argelia" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brasil" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="Mundial" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Países productores" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Países exportadores" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Países importadores" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="China, mainland" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="India" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="Türkiye" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="Algeria" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="Brazil" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_AtRisk_SimSetting_AutomaticallyGenerateReports" hidden="1">FALSE</definedName>
@@ -227,7 +227,7 @@
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -301,8 +301,9 @@
     </xf>
     <xf numFmtId="10" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="2"/>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="166" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="2"/>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="16"/>
     <xf numFmtId="10" fontId="0" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -406,13 +407,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -432,10 +433,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -488,13 +489,13 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -514,21 +515,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países productores'!$B$12:$B$23</f>
+              <f>'Países productores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países productores'!$C$12:$C$23</f>
+              <f>'Países productores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -570,13 +571,13 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -596,10 +597,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -652,13 +653,13 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -678,21 +679,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Países importadores'!$B$12:$B$23</f>
+              <f>'Países importadores'!$B$12:$B$24</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Países importadores'!$C$12:$C$23</f>
+              <f>'Países importadores'!$C$12:$C$24</f>
             </numRef>
           </val>
         </ser>
@@ -734,13 +735,13 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -760,21 +761,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'China, Continental'!$B$12:$B$74</f>
+              <f>'China, mainland'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'China, Continental'!$C$12:$C$74</f>
+              <f>'China, mainland'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -816,13 +817,13 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -842,10 +843,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -898,13 +899,13 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -924,10 +925,10 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
@@ -980,13 +981,13 @@
 </file>
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1006,21 +1007,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Argelia'!$B$12:$B$74</f>
+              <f>'Algeria'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Argelia'!$C$12:$C$74</f>
+              <f>'Algeria'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1062,13 +1063,13 @@
 </file>
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:bodyPr/>
+          <a:p>
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -1088,21 +1089,21 @@
           <idx val="0"/>
           <order val="0"/>
           <spPr>
-            <a:solidFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:solidFill>
               <a:srgbClr val="4472C4"/>
             </a:solidFill>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ln>
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <cat>
             <numRef>
-              <f>'Brasil'!$B$12:$B$74</f>
+              <f>'Brazil'!$B$12:$B$74</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'Brasil'!$C$12:$C$74</f>
+              <f>'Brazil'!$C$12:$C$74</f>
             </numRef>
           </val>
         </ser>
@@ -1144,7 +1145,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1162,26 +1163,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="8128000" y="206375"/>
           <a:ext cx="2524125" cy="673100"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1202,9 +1203,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1214,7 +1215,7 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1232,26 +1233,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7937500" y="244475"/>
           <a:ext cx="2524125" cy="695325"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1272,9 +1273,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1284,7 +1285,7 @@
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>9</col>
@@ -1302,26 +1303,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="7981950" y="219075"/>
           <a:ext cx="2524125" cy="685800"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1342,9 +1343,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1354,7 +1355,7 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <twoCellAnchor editAs="oneCell">
     <from>
       <col>10</col>
@@ -1372,26 +1373,26 @@
       <nvPicPr>
         <cNvPr id="2" name="Imagen 1"/>
         <cNvPicPr>
-          <a:picLocks xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </cNvPicPr>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:srcRect xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip r:embed="rId2"/>
+        <a:srcRect/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr bwMode="auto">
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:xfrm>
           <a:off x="10175875" y="79375"/>
           <a:ext cx="2524125" cy="682625"/>
         </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+        <a:prstGeom prst="rect">
           <avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:noFill/>
+        <a:ln>
           <a:prstDash val="solid"/>
         </a:ln>
       </spPr>
@@ -1412,9 +1413,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1424,7 +1425,7 @@
 </file>
 
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1439,9 +1440,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1461,13 +1462,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1476,7 +1477,7 @@
 </file>
 
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1491,9 +1492,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1513,13 +1514,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1528,7 +1529,7 @@
 </file>
 
 <file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1543,9 +1544,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1565,13 +1566,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1580,7 +1581,7 @@
 </file>
 
 <file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1595,9 +1596,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1617,13 +1618,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -1632,7 +1633,7 @@
 </file>
 
 <file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>8</col>
@@ -1647,9 +1648,9 @@
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+      <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+          <c:chart r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1669,13 +1670,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
-        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
+        <a:prstGeom prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -2010,8 +2011,8 @@
   </sheetPr>
   <dimension ref="B2:L124"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="69" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -2059,7 +2060,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -2138,10 +2139,10 @@
         <v>3042931</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>104932071.27</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>34.4839</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>104932071.27</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>4554355.82</v>
@@ -2160,10 +2161,10 @@
         <v>3028777</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>103043171.16</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>34.0214</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>103043171.16</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4490585.29</v>
@@ -2182,10 +2183,10 @@
         <v>3084133</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>102716218.95</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>33.3047</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>102716218.95</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>4517560</v>
@@ -2204,10 +2205,10 @@
         <v>3159850</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>104334182.13</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>33.0187</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>104334182.13</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>4427913.27</v>
@@ -2226,10 +2227,10 @@
         <v>3154134</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>102108964.86</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>32.3731</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>102108964.86</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>4380480.35</v>
@@ -2248,10 +2249,10 @@
         <v>3098794</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>101046103.04</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>32.6082</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>101046103.04</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>4147410.11</v>
@@ -2270,10 +2271,10 @@
         <v>3089539</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>100959882.75</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>32.678</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>100959882.75</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>3959899.66</v>
@@ -2292,10 +2293,10 @@
         <v>3202333</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>102419474.24</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>31.9828</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>102419474.24</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>3926966.92</v>
@@ -2314,10 +2315,10 @@
         <v>3170048</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>101018086.75</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>31.8664</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>101018086.75</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>3542486.04</v>
@@ -2336,10 +2337,10 @@
         <v>3158878</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>99222324.77</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>31.4106</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>99222324.77</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>3046836.38</v>
@@ -2358,10 +2359,10 @@
         <v>3146614</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>97546164.97</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>31.0004</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>97546164.97</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2595276</v>
@@ -2380,10 +2381,10 @@
         <v>3126375</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>96193347.22</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>30.7683</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>96193347.22</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>2570025</v>
@@ -2402,10 +2403,10 @@
         <v>3201248</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>94577438.08</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>29.5439</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>94577438.08</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2421556</v>
@@ -2424,10 +2425,10 @@
         <v>3202239</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>93523696.06</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>29.2057</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>93523696.06</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>2469057</v>
@@ -2446,10 +2447,10 @@
         <v>3165035</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>91510041.95999999</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>28.9128</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>91510041.95999999</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>2309534</v>
@@ -2468,10 +2469,10 @@
         <v>3145479</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>89263740.61</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>28.3784</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>89263740.61</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>2252616</v>
@@ -2490,10 +2491,10 @@
         <v>3227307</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>86713001.78</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>26.8685</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>86713001.78</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>2062675</v>
@@ -2512,10 +2513,10 @@
         <v>3338593</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>93646135.65000001</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>28.0496</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>93646135.65000001</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>2033455</v>
@@ -2534,10 +2535,10 @@
         <v>3251742</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>91175031.53</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>28.0388</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>91175031.53</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>1897259</v>
@@ -2556,10 +2557,10 @@
         <v>3239671</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>88212495.67</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>27.2288</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>88212495.67</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>1707166</v>
@@ -2578,10 +2579,10 @@
         <v>3444915</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>88569264.69</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>25.7101</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>88569264.69</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>1685140</v>
@@ -2600,10 +2601,10 @@
         <v>3309798</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>90454622.61</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>27.3293</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>90454622.61</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>1574866.7</v>
@@ -2622,10 +2623,10 @@
         <v>3260879</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>83457942.77</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>25.5937</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>83457942.77</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>1506965</v>
@@ -2644,10 +2645,10 @@
         <v>3151667</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>76682625.48999999</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>24.3308</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>76682625.48999999</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>1512451.31</v>
@@ -2666,10 +2667,10 @@
         <v>3007504</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>73244540.12</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>24.3539</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>73244540.12</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>1585690.93</v>
@@ -2688,10 +2689,10 @@
         <v>2831843</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>61283262.69</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>21.6408</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>61283262.69</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1534756</v>
@@ -2710,10 +2711,10 @@
         <v>2559675</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>59830048.74</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>23.3741</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>59830048.74</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>1443402.01</v>
@@ -2732,10 +2733,10 @@
         <v>2454050</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>47640784.13</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>19.4131</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>47640784.13</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>1286784.02</v>
@@ -2754,10 +2755,10 @@
         <v>2333928</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>41629489.79</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>17.8367</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>41629489.79</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1258419</v>
@@ -2776,10 +2777,10 @@
         <v>2214568</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>38396780.17</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>17.3383</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>38396780.17</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>1138270</v>
@@ -2798,10 +2799,10 @@
         <v>2251730</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>38250481.55</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>16.9872</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>38250481.55</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>967244</v>
@@ -2820,10 +2821,10 @@
         <v>2227244</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>36298249.5</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>16.2974</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>36298249.5</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>974042</v>
@@ -2842,10 +2843,10 @@
         <v>2194814</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>35076229.8</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>15.9814</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>35076229.8</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>794606</v>
@@ -2864,10 +2865,10 @@
         <v>2111636</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>34869745</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>16.5131</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>34869745</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>723297</v>
@@ -2886,10 +2887,10 @@
         <v>2336817</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>34959232</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>14.9602</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>34959232</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>678549</v>
@@ -2908,10 +2909,10 @@
         <v>2433570</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>37556799</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>15.4328</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>37556799</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>651250</v>
@@ -2930,10 +2931,10 @@
         <v>2529865</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>38947629</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>15.3951</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>38947629</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>562036</v>
@@ -2952,10 +2953,10 @@
         <v>2403910</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>35614953</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>14.8154</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>35614953</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>488977</v>
@@ -2974,10 +2975,10 @@
         <v>2359820</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>35304287</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>14.9606</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>35304287</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>447092</v>
@@ -2996,10 +2997,10 @@
         <v>2060209</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>29572949</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>14.3543</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>29572949</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>452066</v>
@@ -3018,10 +3019,10 @@
         <v>2022311</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>28837337</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>14.2596</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>28837337</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>387459</v>
@@ -3040,10 +3041,10 @@
         <v>2034636</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>28749585</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.1301</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>28749585</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>357825</v>
@@ -3062,10 +3063,10 @@
         <v>1929646</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>27720834</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>14.3658</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>27720834</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>302369</v>
@@ -3084,10 +3085,10 @@
         <v>1910505</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>26406813</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>13.8219</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>26406813</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>319356</v>
@@ -3106,10 +3107,10 @@
         <v>1977882</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>26442656</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>13.3692</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>26442656</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>322976</v>
@@ -3128,10 +3129,10 @@
         <v>2074645</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>25154572</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>12.1248</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>25154572</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>243421</v>
@@ -3150,10 +3151,10 @@
         <v>1903086</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>24239738</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>12.7371</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>24239738</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>211457</v>
@@ -3172,10 +3173,10 @@
         <v>1920491</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>24385874</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>12.6977</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>24385874</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>227858</v>
@@ -3194,10 +3195,10 @@
         <v>1883016</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>23766420</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>12.6215</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>23766420</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>204814</v>
@@ -3216,10 +3217,10 @@
         <v>1858276</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>21988860</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.8329</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>21988860</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>176485</v>
@@ -3238,10 +3239,10 @@
         <v>1953613</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>21926466</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.2235</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>21926466</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>174120</v>
@@ -3260,10 +3261,10 @@
         <v>1903959</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>21116168</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.0907</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>21116168</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>201089</v>
@@ -3282,10 +3283,10 @@
         <v>1844136</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>22148511</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>12.0102</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>22148511</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>158189</v>
@@ -3304,10 +3305,10 @@
         <v>1751501</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>19577867</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.1778</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>19577867</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>118189</v>
@@ -3326,10 +3327,10 @@
         <v>1902244</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>21113283</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.0991</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>21113283</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>131249</v>
@@ -3348,10 +3349,10 @@
         <v>1931648</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>21256722</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.0044</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>21256722</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>75323</v>
@@ -3370,10 +3371,10 @@
         <v>1929536</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>20893875</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>10.8284</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>20893875</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>101110</v>
@@ -3391,10 +3392,10 @@
         <v>1887116</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>20090471</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>10.6461</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>20090471</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>79294</v>
@@ -3412,10 +3413,10 @@
         <v>1931300</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>19149955</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>9.9156</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>19149955</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>104258</v>
@@ -3433,10 +3434,10 @@
         <v>1949609</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>19618819</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10.063</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>19618819</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>87057</v>
@@ -3454,10 +3455,10 @@
         <v>1967362</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>19182440</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>9.750299999999999</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>19182440</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>93373</v>
@@ -3475,10 +3476,10 @@
         <v>1995266</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>19137184</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>9.591299999999999</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>19137184</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>78164</v>
@@ -3496,10 +3497,10 @@
         <v>1955516</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>17847421</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>9.126700000000001</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>17847421</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>77149</v>
@@ -3786,8 +3787,8 @@
   </sheetPr>
   <dimension ref="B2:K34"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -3882,7 +3883,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>China, Continental</t>
+          <t>China, mainland</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -3924,7 +3925,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Argelia</t>
+          <t>Algeria</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -3938,7 +3939,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Brasil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -3952,7 +3953,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Federación de Rusia</t>
+          <t>Russian Federation</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -3966,7 +3967,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -3980,7 +3981,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Uzbekistán</t>
+          <t>Uzbekistan</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -3994,7 +3995,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Pakistán</t>
+          <t>Pakistan</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4022,35 +4023,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>22022497.24000001</v>
+        <v>1428910.28</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.2098738447974983</v>
+        <v>0.01361747902910713</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>20593586.96000001</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.1962563657683911</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>104932071.27</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
       <c r="G24" s="32" t="n"/>
     </row>
@@ -4061,40 +4070,41 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="12" t="n"/>
+      <c r="B26" s="29" t="n"/>
       <c r="C26" s="33" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="C27" s="17" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
-      <c r="C28" s="33" t="n"/>
+      <c r="C28" s="35" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
-      <c r="C29" s="33" t="n"/>
+      <c r="C29" s="35" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
-      <c r="C30" s="33" t="n"/>
+      <c r="C30" s="35" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
-      <c r="C31" s="33" t="n"/>
+      <c r="C31" s="35" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
-      <c r="C32" s="33" t="n"/>
+      <c r="C32" s="35" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
-      <c r="C33" s="33" t="n"/>
+      <c r="C33" s="35" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="35" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
   </sheetData>
@@ -4116,7 +4126,7 @@
   <dimension ref="B2:K45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="Q25" sqref="Q25"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4215,7 +4225,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>México</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4229,7 +4239,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4243,7 +4253,7 @@
     <row r="14">
       <c r="B14" s="29" t="inlineStr">
         <is>
-          <t>Italia</t>
+          <t>Italy</t>
         </is>
       </c>
       <c r="C14" s="29" t="n">
@@ -4257,7 +4267,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Marruecos</t>
+          <t>Morocco</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4271,7 +4281,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4285,7 +4295,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Irán (República Islámica del)</t>
+          <t>Iran (Islamic Republic of)</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4299,7 +4309,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4313,7 +4323,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Grecia</t>
+          <t>Greece</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4398,124 +4408,124 @@
     <row r="26">
       <c r="B26" s="13" t="n"/>
       <c r="C26" s="17" t="n"/>
-      <c r="D26" s="35" t="n"/>
+      <c r="D26" s="36" t="n"/>
       <c r="E26" s="25" t="n"/>
       <c r="F26" s="25" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="13" t="n"/>
       <c r="C27" s="17" t="n"/>
-      <c r="D27" s="35" t="n"/>
+      <c r="D27" s="36" t="n"/>
       <c r="E27" s="25" t="n"/>
       <c r="F27" s="25" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="13" t="n"/>
       <c r="C28" s="17" t="n"/>
-      <c r="D28" s="35" t="n"/>
+      <c r="D28" s="36" t="n"/>
       <c r="E28" s="25" t="n"/>
       <c r="F28" s="25" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="13" t="n"/>
       <c r="C29" s="17" t="n"/>
-      <c r="D29" s="35" t="n"/>
+      <c r="D29" s="36" t="n"/>
       <c r="E29" s="25" t="n"/>
       <c r="F29" s="25" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="13" t="n"/>
       <c r="C30" s="17" t="n"/>
-      <c r="D30" s="35" t="n"/>
+      <c r="D30" s="36" t="n"/>
       <c r="E30" s="25" t="n"/>
       <c r="F30" s="25" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="13" t="n"/>
       <c r="C31" s="17" t="n"/>
-      <c r="D31" s="35" t="n"/>
+      <c r="D31" s="36" t="n"/>
       <c r="E31" s="25" t="n"/>
       <c r="F31" s="25" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="13" t="n"/>
       <c r="C32" s="17" t="n"/>
-      <c r="D32" s="35" t="n"/>
+      <c r="D32" s="36" t="n"/>
       <c r="E32" s="25" t="n"/>
       <c r="F32" s="25" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="13" t="n"/>
       <c r="C33" s="17" t="n"/>
-      <c r="D33" s="35" t="n"/>
+      <c r="D33" s="36" t="n"/>
       <c r="E33" s="25" t="n"/>
       <c r="F33" s="25" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="13" t="n"/>
       <c r="C34" s="17" t="n"/>
-      <c r="D34" s="35" t="n"/>
+      <c r="D34" s="36" t="n"/>
       <c r="E34" s="25" t="n"/>
       <c r="F34" s="25" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="13" t="n"/>
       <c r="C35" s="17" t="n"/>
-      <c r="D35" s="35" t="n"/>
+      <c r="D35" s="36" t="n"/>
       <c r="E35" s="25" t="n"/>
       <c r="F35" s="25" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="13" t="n"/>
       <c r="C36" s="17" t="n"/>
-      <c r="D36" s="35" t="n"/>
+      <c r="D36" s="36" t="n"/>
       <c r="E36" s="25" t="n"/>
       <c r="F36" s="25" t="n"/>
     </row>
     <row r="37">
       <c r="B37" s="13" t="n"/>
       <c r="C37" s="17" t="n"/>
-      <c r="D37" s="36" t="n"/>
+      <c r="D37" s="37" t="n"/>
       <c r="E37" s="25" t="n"/>
       <c r="F37" s="25" t="n"/>
     </row>
     <row r="38">
-      <c r="D38" s="36" t="n"/>
+      <c r="D38" s="37" t="n"/>
       <c r="E38" s="25" t="n"/>
       <c r="F38" s="25" t="n"/>
     </row>
     <row r="39">
-      <c r="D39" s="36" t="n"/>
+      <c r="D39" s="37" t="n"/>
       <c r="E39" s="25" t="n"/>
       <c r="F39" s="25" t="n"/>
     </row>
     <row r="40">
-      <c r="D40" s="36" t="n"/>
+      <c r="D40" s="37" t="n"/>
       <c r="E40" s="25" t="n"/>
       <c r="F40" s="25" t="n"/>
     </row>
     <row r="41">
-      <c r="D41" s="36" t="n"/>
+      <c r="D41" s="37" t="n"/>
       <c r="E41" s="25" t="n"/>
       <c r="F41" s="25" t="n"/>
     </row>
     <row r="42">
-      <c r="D42" s="36" t="n"/>
+      <c r="D42" s="37" t="n"/>
       <c r="E42" s="25" t="n"/>
       <c r="F42" s="25" t="n"/>
     </row>
     <row r="43">
-      <c r="D43" s="36" t="n"/>
+      <c r="D43" s="37" t="n"/>
       <c r="E43" s="25" t="n"/>
       <c r="F43" s="25" t="n"/>
     </row>
     <row r="44">
-      <c r="D44" s="36" t="n"/>
+      <c r="D44" s="37" t="n"/>
       <c r="E44" s="25" t="n"/>
       <c r="F44" s="25" t="n"/>
     </row>
     <row r="45">
-      <c r="D45" s="36" t="n"/>
+      <c r="D45" s="37" t="n"/>
       <c r="E45" s="25" t="n"/>
       <c r="F45" s="25" t="n"/>
     </row>
@@ -4537,8 +4547,8 @@
   </sheetPr>
   <dimension ref="B2:K36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -4633,7 +4643,7 @@
     <row r="12">
       <c r="B12" s="29" t="inlineStr">
         <is>
-          <t>Estados Unidos de América</t>
+          <t>United States of America</t>
         </is>
       </c>
       <c r="C12" s="29" t="n">
@@ -4647,7 +4657,7 @@
     <row r="13">
       <c r="B13" s="29" t="inlineStr">
         <is>
-          <t>Alemania</t>
+          <t>Germany</t>
         </is>
       </c>
       <c r="C13" s="29" t="n">
@@ -4675,7 +4685,7 @@
     <row r="15">
       <c r="B15" s="29" t="inlineStr">
         <is>
-          <t>Francia</t>
+          <t>France</t>
         </is>
       </c>
       <c r="C15" s="29" t="n">
@@ -4689,7 +4699,7 @@
     <row r="16">
       <c r="B16" s="29" t="inlineStr">
         <is>
-          <t>Emiratos Árabes Unidos</t>
+          <t>United Arab Emirates</t>
         </is>
       </c>
       <c r="C16" s="29" t="n">
@@ -4703,7 +4713,7 @@
     <row r="17">
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Canadá</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C17" s="29" t="n">
@@ -4717,7 +4727,7 @@
     <row r="18">
       <c r="B18" s="29" t="inlineStr">
         <is>
-          <t>Países Bajos (Reino de los)</t>
+          <t>Netherlands (Kingdom of the)</t>
         </is>
       </c>
       <c r="C18" s="29" t="n">
@@ -4731,7 +4741,7 @@
     <row r="19">
       <c r="B19" s="29" t="inlineStr">
         <is>
-          <t>Polonia</t>
+          <t>Poland</t>
         </is>
       </c>
       <c r="C19" s="29" t="n">
@@ -4745,7 +4755,7 @@
     <row r="20">
       <c r="B20" s="29" t="inlineStr">
         <is>
-          <t>Reino Unido de Gran Bretaña e Irlanda del Norte</t>
+          <t>United Kingdom of Great Britain and Northern Ireland</t>
         </is>
       </c>
       <c r="C20" s="29" t="n">
@@ -4759,7 +4769,7 @@
     <row r="21">
       <c r="B21" s="29" t="inlineStr">
         <is>
-          <t>España</t>
+          <t>Spain</t>
         </is>
       </c>
       <c r="C21" s="29" t="n">
@@ -4773,35 +4783,43 @@
     <row r="22">
       <c r="B22" s="29" t="inlineStr">
         <is>
-          <t>Otros</t>
+          <t>Mexico</t>
         </is>
       </c>
       <c r="C22" s="29" t="n">
-        <v>1421217.720000001</v>
+        <v>19855.17</v>
       </c>
       <c r="D22" s="31" t="n">
-        <v>0.3120568036776715</v>
+        <v>0.004359600080610301</v>
       </c>
       <c r="E22" s="29" t="n"/>
     </row>
     <row r="23">
       <c r="B23" s="29" t="inlineStr">
         <is>
+          <t>Otros</t>
+        </is>
+      </c>
+      <c r="C23" s="29" t="n">
+        <v>1401362.550000001</v>
+      </c>
+      <c r="D23" s="31" t="n">
+        <v>0.3076972035970612</v>
+      </c>
+      <c r="E23" s="29" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="29" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="C23" s="29" t="n">
+      <c r="C24" s="29" t="n">
         <v>4554355.82</v>
       </c>
-      <c r="D23" s="31" t="n">
+      <c r="D24" s="31" t="n">
         <v>1</v>
       </c>
-      <c r="E23" s="29" t="n"/>
-    </row>
-    <row r="24">
-      <c r="B24" s="29" t="n"/>
-      <c r="C24" s="29" t="n"/>
-      <c r="D24" s="31" t="n"/>
       <c r="E24" s="29" t="n"/>
     </row>
     <row r="25">
@@ -4811,59 +4829,60 @@
       <c r="E25" s="29" t="n"/>
     </row>
     <row r="26">
-      <c r="B26" s="15" t="n"/>
-      <c r="C26" s="37" t="n"/>
-      <c r="D26" s="34" t="n"/>
+      <c r="B26" s="29" t="n"/>
+      <c r="C26" s="33" t="n"/>
+      <c r="D26" s="31" t="n"/>
+      <c r="E26" s="29" t="n"/>
     </row>
     <row r="27">
       <c r="B27" s="15" t="n"/>
-      <c r="C27" s="37" t="n"/>
+      <c r="C27" s="38" t="n"/>
       <c r="D27" s="34" t="n"/>
     </row>
     <row r="28">
       <c r="B28" s="15" t="n"/>
-      <c r="C28" s="37" t="n"/>
+      <c r="C28" s="38" t="n"/>
       <c r="D28" s="34" t="n"/>
     </row>
     <row r="29">
       <c r="B29" s="15" t="n"/>
-      <c r="C29" s="37" t="n"/>
+      <c r="C29" s="38" t="n"/>
       <c r="D29" s="34" t="n"/>
     </row>
     <row r="30">
       <c r="B30" s="15" t="n"/>
-      <c r="C30" s="37" t="n"/>
+      <c r="C30" s="38" t="n"/>
       <c r="D30" s="34" t="n"/>
     </row>
     <row r="31">
       <c r="B31" s="15" t="n"/>
-      <c r="C31" s="37" t="n"/>
+      <c r="C31" s="38" t="n"/>
       <c r="D31" s="34" t="n"/>
     </row>
     <row r="32">
       <c r="B32" s="15" t="n"/>
-      <c r="C32" s="37" t="n"/>
+      <c r="C32" s="38" t="n"/>
       <c r="D32" s="34" t="n"/>
     </row>
     <row r="33">
       <c r="B33" s="15" t="n"/>
-      <c r="C33" s="37" t="n"/>
+      <c r="C33" s="38" t="n"/>
       <c r="D33" s="34" t="n"/>
     </row>
     <row r="34">
       <c r="B34" s="15" t="n"/>
-      <c r="C34" s="37" t="n"/>
+      <c r="C34" s="38" t="n"/>
       <c r="D34" s="34" t="n"/>
     </row>
     <row r="35">
       <c r="B35" s="15" t="n"/>
-      <c r="C35" s="37" t="n"/>
-      <c r="D35" s="36" t="n"/>
+      <c r="C35" s="38" t="n"/>
+      <c r="D35" s="37" t="n"/>
     </row>
     <row r="36">
       <c r="B36" s="15" t="n"/>
-      <c r="C36" s="37" t="n"/>
-      <c r="D36" s="36" t="n"/>
+      <c r="C36" s="38" t="n"/>
+      <c r="D36" s="37" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4932,7 +4951,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -5011,10 +5030,10 @@
         <v>1488028</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>63821304.29</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>42.8899</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>63821304.29</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>73607.42</v>
@@ -5033,10 +5052,10 @@
         <v>1484820</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>63023100</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>42.4449</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>63023100</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>68410.67</v>
@@ -5055,10 +5074,10 @@
         <v>1475550</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>61634000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>41.7702</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>61634000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>55810.72</v>
@@ -5077,10 +5096,10 @@
         <v>1528150</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>62343600</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>40.7968</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>62343600</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>97442</v>
@@ -5099,10 +5118,10 @@
         <v>1539370</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>60861241</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>39.5365</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>60861241</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>272823.67</v>
@@ -5121,10 +5140,10 @@
         <v>1517930</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>61536900</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>40.54</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>61536900</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>219944.84</v>
@@ -5143,10 +5162,10 @@
         <v>1519720</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>63147220</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>41.5519</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>63147220</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>188324</v>
@@ -5165,10 +5184,10 @@
         <v>1515060</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>62206500</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>41.05880000000001</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>62206500</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>204199.31</v>
@@ -5187,10 +5206,10 @@
         <v>1548230</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>62671400</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>40.4794</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>62671400</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>200763.84</v>
@@ -5209,10 +5228,10 @@
         <v>1556890</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>61491100</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>39.4961</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>61491100</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>214613.8</v>
@@ -5231,10 +5250,10 @@
         <v>1568530</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>61010700</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>38.8967</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>61010700</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>249718</v>
@@ -5253,10 +5272,10 @@
         <v>1561280</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>60291300</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>38.6166</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>60291300</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>420137</v>
@@ -5275,10 +5294,10 @@
         <v>1606000</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>60004000</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>37.3624</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>60004000</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>398129</v>
@@ -5297,10 +5316,10 @@
         <v>1640750</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>60510100</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>36.8795</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>60510100</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>313260</v>
@@ -5319,10 +5338,10 @@
         <v>1575050</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>57709700</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>36.6399</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>57709700</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>263674</v>
@@ -5341,10 +5360,10 @@
         <v>1597360</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>57506200</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>36.00080000000001</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>57506200</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>222739</v>
@@ -5363,10 +5382,10 @@
         <v>1622760</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>54753500</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>33.741</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>54753500</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>167017</v>
@@ -5385,10 +5404,10 @@
         <v>1752610</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>61845200</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>35.2875</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>61845200</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>144345</v>
@@ -5407,10 +5426,10 @@
         <v>1707460</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>59893432</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>35.0775</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>59893432</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>132191</v>
@@ -5429,10 +5448,10 @@
         <v>1660050</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>57515420</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>34.64680000000001</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>57515420</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>65992</v>
@@ -5451,10 +5470,10 @@
         <v>1836270</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>58002352</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>31.587</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>58002352</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>44592</v>
@@ -5473,10 +5492,10 @@
         <v>1846830</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>61607500</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>33.3585</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>61607500</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>67473</v>
@@ -5495,10 +5514,10 @@
         <v>1822340</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>57178300</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>31.3763</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>57178300</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>20517</v>
@@ -5517,10 +5536,10 @@
         <v>1625350</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>51466312</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>31.6648</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>51466312</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>5488.65</v>
@@ -5539,10 +5558,10 @@
         <v>1421300</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>46164884</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>32.4807</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>46164884</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>7220</v>
@@ -5561,10 +5580,10 @@
         <v>1314760</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>35484684</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>26.9895</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>35484684</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>13879</v>
@@ -5583,10 +5602,10 @@
         <v>1054380</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>34701868</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>32.9121</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>34701868</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>4766</v>
@@ -5605,10 +5624,10 @@
         <v>960670</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>23476646</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>24.4378</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>23476646</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>5257</v>
@@ -5627,10 +5646,10 @@
         <v>864760</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>18520000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>21.4163</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>18520000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>1871</v>
@@ -5649,10 +5668,10 @@
         <v>851000</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>17100000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>20.094</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>17100000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>214</v>
@@ -5671,10 +5690,10 @@
         <v>870000</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>19.5402</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>17000000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>672</v>
@@ -5693,10 +5712,10 @@
         <v>700000</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>14200000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>20.2857</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>14200000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>150</v>
@@ -5715,10 +5734,10 @@
         <v>588000</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>11200000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>19.0476</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>11200000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>100</v>
@@ -5737,10 +5756,10 @@
         <v>555000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>10700000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>19.2793</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>10700000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>398</v>
@@ -5759,10 +5778,10 @@
         <v>700000</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>12400000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>17.7143</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>12400000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>98</v>
@@ -5781,10 +5800,10 @@
         <v>833000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>14200000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>17.0468</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>14200000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>158</v>
@@ -5803,10 +5822,10 @@
         <v>818000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>13800000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>16.8704</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>13800000</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>511</v>
@@ -5825,10 +5844,10 @@
         <v>734000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>12400000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>16.8937</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>12400000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -5847,10 +5866,10 @@
         <v>708000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>11900000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>16.8079</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>11900000</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -5869,10 +5888,10 @@
         <v>477000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>7600000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>15.9329</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>7600000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -5891,10 +5910,10 @@
         <v>425000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>6800000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>16</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>6800000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -5913,10 +5932,10 @@
         <v>405000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>5985000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>14.7778</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>5985000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -5935,10 +5954,10 @@
         <v>365000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>5985000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>16.3973</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>5985000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -5957,10 +5976,10 @@
         <v>335000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>5130000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>15.3134</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>5130000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -5979,10 +5998,10 @@
         <v>340000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>5375000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>15.8088</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>5375000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -6001,10 +6020,10 @@
         <v>350000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>15.7143</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>5500000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -6023,10 +6042,10 @@
         <v>310000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>5140000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>16.5806</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>5140000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -6045,10 +6064,10 @@
         <v>300000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>4980000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>16.6</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>4980000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -6067,10 +6086,10 @@
         <v>300000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>4980000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>16.6</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>4980000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -6089,10 +6108,10 @@
         <v>290000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>4820000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>16.6207</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>4820000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -6111,10 +6130,10 @@
         <v>300000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>4770000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.9</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>4770000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -6133,10 +6152,10 @@
         <v>270000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>4270000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>15.8148</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>4270000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -6155,10 +6174,10 @@
         <v>290000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>4870000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16.7931</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>4870000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -6177,10 +6196,10 @@
         <v>265000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>4410000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>16.6415</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>4410000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -6199,10 +6218,10 @@
         <v>375000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>5900000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>15.7333</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>5900000</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -6221,10 +6240,10 @@
         <v>375000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>5700000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>15.2</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>5700000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -6243,10 +6262,10 @@
         <v>395000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>5500000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>13.9241</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>5500000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -6264,10 +6283,10 @@
         <v>395000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>5420000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>13.7215</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>5420000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -6285,10 +6304,10 @@
         <v>410000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>5400000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>13.1707</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>5400000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -6306,10 +6325,10 @@
         <v>410000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>5150000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>12.561</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>5150000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -6327,10 +6346,10 @@
         <v>460000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>5820000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>12.6522</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>5820000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -6348,10 +6367,10 @@
         <v>530000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>6520000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>12.3019</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>6520000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -6369,10 +6388,10 @@
         <v>530000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>6500000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.2642</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>6500000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -6708,7 +6727,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -6787,10 +6806,10 @@
         <v>126000</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3626000</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>28.7778</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3626000</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>15.3</v>
@@ -6809,10 +6828,10 @@
         <v>120000</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3308000</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>27.5667</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3308000</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>4.01</v>
@@ -6831,10 +6850,10 @@
         <v>119000</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3254000</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>27.3445</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3254000</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>306.82</v>
@@ -6853,10 +6872,10 @@
         <v>116000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3157000</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>27.2155</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3157000</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>318.97</v>
@@ -6875,10 +6894,10 @@
         <v>100000</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2495000</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>24.95</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2495000</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>0.8</v>
@@ -6897,10 +6916,10 @@
         <v>101000</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2520000</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>24.9505</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2520000</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>29.09</v>
@@ -6919,10 +6938,10 @@
         <v>91000</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2182000</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>23.978</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2182000</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>0.73</v>
@@ -6941,10 +6960,10 @@
         <v>95000</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2325000</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>24.4737</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2325000</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>0.18</v>
@@ -6963,10 +6982,10 @@
         <v>89000</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2145000</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>24.1011</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2145000</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>7.18</v>
@@ -6985,10 +7004,10 @@
         <v>75000</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1810000</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>24.1333</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1810000</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -7005,10 +7024,10 @@
         <v>81000</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1789000</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>22.0864</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1789000</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>1</v>
@@ -7027,10 +7046,10 @@
         <v>71000</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1727000</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>24.3239</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1727000</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>1</v>
@@ -7049,10 +7068,10 @@
         <v>67400</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1436500</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>21.3131</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1436500</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -7071,10 +7090,10 @@
         <v>26753</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>369379.51</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>13.8071</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>369379.51</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -7093,10 +7112,10 @@
         <v>26080</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>358052.2</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>13.729</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>358052.2</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -7115,10 +7134,10 @@
         <v>25409</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>346812.15</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>13.6494</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>346812.15</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -7137,10 +7156,10 @@
         <v>24737</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>335665.99</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>13.5691</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>335665.99</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -7159,10 +7178,10 @@
         <v>24066</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>324625.31</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>13.4891</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>324625.31</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -7181,10 +7200,10 @@
         <v>23393</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>313709.08</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>13.4103</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>313709.08</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>18</v>
@@ -7203,10 +7222,10 @@
         <v>22771</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>301927.37</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>13.2595</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>301927.37</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>163</v>
@@ -7225,10 +7244,10 @@
         <v>22078</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>291544.24</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>13.2053</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>291544.24</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>52</v>
@@ -7247,10 +7266,10 @@
         <v>21383</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>281146.77</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>13.148</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>281146.77</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>119</v>
@@ -7269,10 +7288,10 @@
         <v>20687</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>270876.94</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>13.094</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>270876.94</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>168</v>
@@ -7291,10 +7310,10 @@
         <v>20000</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>255000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>12.75</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>255000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>20</v>
@@ -7313,10 +7332,10 @@
         <v>19574</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>255539.66</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>13.0551</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>255539.66</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>64.19</v>
@@ -7335,10 +7354,10 @@
         <v>19076</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>249017.81</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>13.0538</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>249017.81</v>
       </c>
       <c r="F37" s="29" t="inlineStr"/>
       <c r="G37" s="29" t="n">
@@ -7355,10 +7374,10 @@
         <v>19000</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>250000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>13.1579</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>250000</v>
       </c>
       <c r="F38" s="29" t="inlineStr"/>
       <c r="G38" s="29" t="n">
@@ -7375,10 +7394,10 @@
         <v>17300</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>225000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>13.0058</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>225000</v>
       </c>
       <c r="F39" s="29" t="inlineStr"/>
       <c r="G39" s="29" t="n">
@@ -7395,10 +7414,10 @@
         <v>17000</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>220000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>12.9412</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>220000</v>
       </c>
       <c r="F40" s="29" t="inlineStr"/>
       <c r="G40" s="29" t="inlineStr"/>
@@ -7413,10 +7432,10 @@
         <v>16800</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>215000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>12.7976</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>215000</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="inlineStr"/>
@@ -7431,10 +7450,10 @@
         <v>16500</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>210000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>12.7273</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>210000</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="inlineStr"/>
@@ -7449,10 +7468,10 @@
         <v>16300</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>208000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>12.7607</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>208000</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="inlineStr"/>
@@ -7467,10 +7486,10 @@
         <v>16194</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>205900</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>12.7146</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>205900</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="inlineStr"/>
@@ -7485,10 +7504,10 @@
         <v>16000</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>200000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>12.5</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>200000</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="inlineStr"/>
@@ -7503,10 +7522,10 @@
         <v>15700</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>197000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>12.5478</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>197000</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="inlineStr"/>
@@ -7521,10 +7540,10 @@
         <v>15500</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>195000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>12.5806</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>195000</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="inlineStr"/>
@@ -7539,10 +7558,10 @@
         <v>15000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>188000</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>12.5333</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>188000</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="inlineStr"/>
@@ -7557,10 +7576,10 @@
         <v>14700</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>184000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>12.517</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>184000</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="inlineStr"/>
@@ -7575,10 +7594,10 @@
         <v>14300</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>170000</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>11.8881</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>170000</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="inlineStr"/>
@@ -7593,10 +7612,10 @@
         <v>14000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>165000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>11.7857</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>165000</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="inlineStr"/>
@@ -7611,10 +7630,10 @@
         <v>13500</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>160000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>11.8519</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>160000</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="inlineStr"/>
@@ -7629,10 +7648,10 @@
         <v>13000</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>153000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>11.7692</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>153000</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="inlineStr"/>
@@ -7647,10 +7666,10 @@
         <v>12400</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>145000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>11.6935</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>145000</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="inlineStr"/>
@@ -7665,10 +7684,10 @@
         <v>12000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>140000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>11.6667</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>140000</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="inlineStr"/>
@@ -7683,10 +7702,10 @@
         <v>11500</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>133000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>11.5652</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>133000</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="inlineStr"/>
@@ -7701,10 +7720,10 @@
         <v>11000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>128000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>11.6364</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>128000</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="inlineStr"/>
@@ -7719,10 +7738,10 @@
         <v>10900</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>126000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>11.5596</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>126000</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="inlineStr"/>
@@ -7737,10 +7756,10 @@
         <v>10700</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>11.6822</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="inlineStr"/>
@@ -7755,10 +7774,10 @@
         <v>10500</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>120000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>120000</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="inlineStr"/>
@@ -7773,10 +7792,10 @@
         <v>10200</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>118000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>11.5686</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>118000</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="inlineStr"/>
@@ -7791,10 +7810,10 @@
         <v>10000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>116000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>11.6</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>116000</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="inlineStr"/>
@@ -7809,10 +7828,10 @@
         <v>9900</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>114000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>11.5152</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>114000</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="inlineStr"/>
@@ -7827,10 +7846,10 @@
         <v>9500</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>109000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>11.4737</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>109000</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="inlineStr"/>
@@ -7845,10 +7864,10 @@
         <v>8900</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>102000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>11.4607</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>102000</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="inlineStr"/>
@@ -7863,10 +7882,10 @@
         <v>8700</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>100000</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>11.4943</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>100000</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="inlineStr"/>
@@ -7881,10 +7900,10 @@
         <v>8400</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>96000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>11.4286</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>96000</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="inlineStr"/>
@@ -7899,10 +7918,10 @@
         <v>8000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>89000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>11.125</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>89000</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="inlineStr"/>
@@ -7916,10 +7935,10 @@
         <v>7900</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>88000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>11.1392</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>88000</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="inlineStr"/>
@@ -7933,10 +7952,10 @@
         <v>7600</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>85000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>11.1842</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>85000</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="inlineStr"/>
@@ -7950,10 +7969,10 @@
         <v>7500</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>80000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>10.6667</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>80000</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="inlineStr"/>
@@ -7967,10 +7986,10 @@
         <v>7000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>77000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>11</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>77000</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="inlineStr"/>
@@ -7984,10 +8003,10 @@
         <v>6800</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>75000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>11.0294</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>75000</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="inlineStr"/>
@@ -8001,10 +8020,10 @@
         <v>6500</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>71000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>10.9231</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>71000</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="inlineStr"/>
@@ -8336,7 +8355,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -8415,10 +8434,10 @@
         <v>64070</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>3147921</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>49.1325</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>3147921</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>43565.3</v>
@@ -8437,10 +8456,10 @@
         <v>69021</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>3394783</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>49.1848</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>3394783</v>
       </c>
       <c r="F13" s="29" t="n">
         <v>55433</v>
@@ -8459,10 +8478,10 @@
         <v>72949</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>3468717</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>47.5499</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>3468717</v>
       </c>
       <c r="F14" s="29" t="n">
         <v>62596.37</v>
@@ -8481,10 +8500,10 @@
         <v>74035</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>3491554</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>47.1609</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>3491554</v>
       </c>
       <c r="F15" s="29" t="n">
         <v>32567.05</v>
@@ -8503,10 +8522,10 @@
         <v>83366</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>3870515</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>46.428</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>3870515</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>86988.89999999999</v>
@@ -8525,10 +8544,10 @@
         <v>86361</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>4031174</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>46.6782</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>4031174</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>62373.6</v>
@@ -8547,10 +8566,10 @@
         <v>90488</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>4011313</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>44.32980000000001</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>4011313</v>
       </c>
       <c r="F18" s="29" t="n">
         <v>35059.85</v>
@@ -8569,10 +8588,10 @@
         <v>91993</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>3928892</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>42.7086</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>3928892</v>
       </c>
       <c r="F19" s="29" t="n">
         <v>23973.85</v>
@@ -8591,10 +8610,10 @@
         <v>93546</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>3918558</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>41.8891</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>3918558</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>27814.42</v>
@@ -8613,10 +8632,10 @@
         <v>95463</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>3885617</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>40.7029</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>3885617</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>28856</v>
@@ -8635,10 +8654,10 @@
         <v>97946</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>3887324</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>39.6884</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>3887324</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>25316</v>
@@ -8657,10 +8676,10 @@
         <v>97732</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>4022296</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>41.1564</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>4022296</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>16703</v>
@@ -8679,10 +8698,10 @@
         <v>97964</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>3864489</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>39.4481</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>3864489</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>17565</v>
@@ -8701,10 +8720,10 @@
         <v>95660</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>3683103</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>38.502</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>3683103</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>5731</v>
@@ -8723,10 +8742,10 @@
         <v>99721</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>3810205</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>38.2087</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>3810205</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>10154</v>
@@ -8745,10 +8764,10 @@
         <v>109611</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>4002285</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>36.5135</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>4002285</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>6302</v>
@@ -8767,10 +8786,10 @@
         <v>108208</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>3796680</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>35.0869</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>3796680</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>3057</v>
@@ -8789,10 +8808,10 @@
         <v>109022</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>3805306</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>34.904</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>3805306</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>4139</v>
@@ -8811,10 +8830,10 @@
         <v>116546</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>3970000</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>34.0638</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>3970000</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>249</v>
@@ -8833,10 +8852,10 @@
         <v>117074</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>3825000</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>32.6716</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>3825000</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>107</v>
@@ -8855,10 +8874,10 @@
         <v>127448</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>4215000</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>33.07230000000001</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>4215000</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>134</v>
@@ -8877,10 +8896,10 @@
         <v>134031</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>4575000</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>34.1339</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>4575000</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>18</v>
@@ -8899,10 +8918,10 @@
         <v>125018</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>4020000</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>32.1554</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>4020000</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>15</v>
@@ -8921,10 +8940,10 @@
         <v>124717</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>3940000</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>31.5915</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>3940000</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>83.63</v>
@@ -8943,10 +8962,10 @@
         <v>125944</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>3932000</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>31.2202</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>3932000</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>54</v>
@@ -8965,10 +8984,10 @@
         <v>126800</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>3930000</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>30.9937</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>3930000</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>1070</v>
@@ -8987,10 +9006,10 @@
         <v>127988</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>3800000</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>29.6903</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>3800000</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>164</v>
@@ -9009,10 +9028,10 @@
         <v>136709</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>3900000</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>28.5277</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>3900000</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>8341</v>
@@ -9031,10 +9050,10 @@
         <v>136127</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>3600000</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>26.4459</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>3600000</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>39</v>
@@ -9053,10 +9072,10 @@
         <v>141910</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>3650000</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>25.7205</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>3650000</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>131</v>
@@ -9075,10 +9094,10 @@
         <v>120968</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>3250000</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>26.8666</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>3250000</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>13060</v>
@@ -9097,10 +9116,10 @@
         <v>153128</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>3680000</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>24.0322</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>3680000</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>528</v>
@@ -9119,10 +9138,10 @@
         <v>128653</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>3820000</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>29.6923</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>3820000</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>15</v>
@@ -9141,10 +9160,10 @@
         <v>102845</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>32.0871</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>3300000</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>13441</v>
@@ -9163,10 +9182,10 @@
         <v>122240</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>24.5419</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>91</v>
@@ -9185,10 +9204,10 @@
         <v>125000</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>3300000</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>26.4</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>3300000</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>242</v>
@@ -9207,10 +9226,10 @@
         <v>130000</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>3422854</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>26.3296</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>3422854</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>18</v>
@@ -9229,10 +9248,10 @@
         <v>130000</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>23.0769</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -9251,10 +9270,10 @@
         <v>130000</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>3422087</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>26.3237</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>3422087</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -9273,10 +9292,10 @@
         <v>146000</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>21.2329</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>3100000</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -9295,10 +9314,10 @@
         <v>153000</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>3110000</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>20.3268</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>3110000</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>0</v>
@@ -9317,10 +9336,10 @@
         <v>151400</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>3100000</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>20.4756</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>3100000</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -9339,10 +9358,10 @@
         <v>146000</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>20.5479</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -9361,10 +9380,10 @@
         <v>154000</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>3000000</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>19.4805</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>3000000</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -9383,10 +9402,10 @@
         <v>152000</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>3470000</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>22.8289</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>3470000</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -9405,10 +9424,10 @@
         <v>143000</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>2550000</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>17.8322</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>2550000</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -9427,10 +9446,10 @@
         <v>132000</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>2410000</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>18.2576</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>2410000</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -9449,10 +9468,10 @@
         <v>141000</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>2900000</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>20.5674</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>2900000</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -9471,10 +9490,10 @@
         <v>140000</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>2600000</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>18.5714</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>2600000</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -9493,10 +9512,10 @@
         <v>141000</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>2400000</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>17.0213</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>2400000</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>0</v>
@@ -9515,10 +9534,10 @@
         <v>133000</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>15.4135</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>2050000</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>0</v>
@@ -9537,10 +9556,10 @@
         <v>127000</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>2200000</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>17.3228</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>2200000</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>0</v>
@@ -9559,10 +9578,10 @@
         <v>125000</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>16.8</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>0</v>
@@ -9581,10 +9600,10 @@
         <v>124000</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>2170000</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>2170000</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -9603,10 +9622,10 @@
         <v>120000</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>2100040</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>17.5003</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>2100040</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>0</v>
@@ -9625,10 +9644,10 @@
         <v>120000</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>2160000</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>18</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>2160000</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -9647,10 +9666,10 @@
         <v>124000</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>2089000</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>16.8468</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>2089000</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -9668,10 +9687,10 @@
         <v>120000</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>2100000</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>17.5</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>2100000</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -9689,10 +9708,10 @@
         <v>120000</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>16.5</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>1980000</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>0</v>
@@ -9710,10 +9729,10 @@
         <v>120000</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>1980000</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>16.5</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>1980000</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>0</v>
@@ -9731,10 +9750,10 @@
         <v>120467</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>1804000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>14.9751</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>1804000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>0</v>
@@ -9752,10 +9771,10 @@
         <v>131000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>1782000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>13.6031</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>1782000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>0</v>
@@ -9773,10 +9792,10 @@
         <v>137000</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>1700000</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>12.4088</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>1700000</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>0</v>
@@ -10112,7 +10131,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -10191,10 +10210,10 @@
         <v>63258</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>2507140.41</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>39.6337</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>2507140.41</v>
       </c>
       <c r="F12" s="29" t="n">
         <v>0.72</v>
@@ -10213,10 +10232,10 @@
         <v>55834</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>2074242.92</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>37.1501</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>2074242.92</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -10233,10 +10252,10 @@
         <v>59462</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2075874</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>34.9107</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2075874</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -10253,10 +10272,10 @@
         <v>61000</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2286809.1</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>37.4884</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2286809.1</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="inlineStr"/>
@@ -10271,10 +10290,10 @@
         <v>62673</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2206866</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>35.2124</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2206866</v>
       </c>
       <c r="F16" s="29" t="n">
         <v>1.5</v>
@@ -10293,10 +10312,10 @@
         <v>60400</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2095757.49</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>34.6978</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2095757.49</v>
       </c>
       <c r="F17" s="29" t="n">
         <v>0.05</v>
@@ -10315,10 +10334,10 @@
         <v>57343</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>1891273.8</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>32.9818</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>1891273.8</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -10335,10 +10354,10 @@
         <v>59039</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>1877677</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>31.804</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>1877677</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -10355,10 +10374,10 @@
         <v>58120</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>1814435</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>31.2188</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>1814435</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>77.17</v>
@@ -10377,10 +10396,10 @@
         <v>54427</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>1614301</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>29.6599</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>1614301</v>
       </c>
       <c r="F21" s="29" t="n">
         <v>355.26</v>
@@ -10397,10 +10416,10 @@
         <v>56254</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>1500559</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>26.6747</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>1500559</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>2115</v>
@@ -10419,10 +10438,10 @@
         <v>54626</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>1495081</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>27.3694</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>1495081</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>5205</v>
@@ -10441,10 +10460,10 @@
         <v>50759</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>1285134</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>25.3183</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>1285134</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>2283</v>
@@ -10463,10 +10482,10 @@
         <v>49455</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>1223767</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>24.7451</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>1223767</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>3855</v>
@@ -10485,10 +10504,10 @@
         <v>44791</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>1034722</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>23.1011</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>1034722</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>4151</v>
@@ -10507,10 +10526,10 @@
         <v>44301</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>844631</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>19.0657</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>844631</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>1960</v>
@@ -10529,10 +10548,10 @@
         <v>43664</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>815665</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>18.6805</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>815665</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>198</v>
@@ -10551,10 +10570,10 @@
         <v>43290</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>785224</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>18.1387</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>785224</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>74</v>
@@ -10573,10 +10592,10 @@
         <v>42844</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>857942</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>20.0248</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>857942</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>8</v>
@@ -10595,10 +10614,10 @@
         <v>39506</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>721376</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>18.2599</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>721376</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -10617,10 +10636,10 @@
         <v>34550</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>629847</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>18.23</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>629847</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>5</v>
@@ -10639,10 +10658,10 @@
         <v>29130</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>458123</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>15.7268</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>458123</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>5</v>
@@ -10661,10 +10680,10 @@
         <v>31900</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>463892</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>14.5421</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>463892</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>17</v>
@@ -10683,10 +10702,10 @@
         <v>28980</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>398691</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>13.7575</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>398691</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>0</v>
@@ -10703,10 +10722,10 @@
         <v>35180</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>538308</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>15.3015</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>538308</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>0</v>
@@ -10723,10 +10742,10 @@
         <v>33080</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>502016</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>15.1758</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>502016</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>0</v>
@@ -10743,10 +10762,10 @@
         <v>29950</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>401300</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>13.399</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>401300</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>0</v>
@@ -10763,10 +10782,10 @@
         <v>36280</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>455358</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>12.5512</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>455358</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>0</v>
@@ -10783,10 +10802,10 @@
         <v>34920</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>403396</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>11.552</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>403396</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>0</v>
@@ -10803,10 +10822,10 @@
         <v>34910</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>401168</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>11.4915</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>401168</v>
       </c>
       <c r="F41" s="29" t="n">
         <v>0</v>
@@ -10823,10 +10842,10 @@
         <v>35260</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>490058</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>13.8984</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>490058</v>
       </c>
       <c r="F42" s="29" t="n">
         <v>0</v>
@@ -10843,10 +10862,10 @@
         <v>38890</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>447228</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>11.4998</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>447228</v>
       </c>
       <c r="F43" s="29" t="n">
         <v>0</v>
@@ -10863,10 +10882,10 @@
         <v>35700</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>371515</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>10.4066</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>371515</v>
       </c>
       <c r="F44" s="29" t="n">
         <v>0</v>
@@ -10883,10 +10902,10 @@
         <v>31980</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>264124</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>8.259</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>264124</v>
       </c>
       <c r="F45" s="29" t="n">
         <v>0</v>
@@ -10903,10 +10922,10 @@
         <v>31160</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>300874</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>9.655799999999999</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>300874</v>
       </c>
       <c r="F46" s="29" t="n">
         <v>0</v>
@@ -10923,10 +10942,10 @@
         <v>32570</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>232040</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>7.1243</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>232040</v>
       </c>
       <c r="F47" s="29" t="n">
         <v>0</v>
@@ -10943,10 +10962,10 @@
         <v>35060</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>360030</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>10.269</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>360030</v>
       </c>
       <c r="F48" s="29" t="n">
         <v>0</v>
@@ -10963,10 +10982,10 @@
         <v>40040</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>317690</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>7.9343</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>317690</v>
       </c>
       <c r="F49" s="29" t="n">
         <v>0</v>
@@ -10983,10 +11002,10 @@
         <v>40740</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>318243</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>7.8116</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>318243</v>
       </c>
       <c r="F50" s="29" t="n">
         <v>0</v>
@@ -11003,10 +11022,10 @@
         <v>32730</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>242976</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>7.4236</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>242976</v>
       </c>
       <c r="F51" s="29" t="n">
         <v>0</v>
@@ -11023,10 +11042,10 @@
         <v>32170</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>206941</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>6.4327</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>206941</v>
       </c>
       <c r="F52" s="29" t="n">
         <v>887</v>
@@ -11043,10 +11062,10 @@
         <v>29910</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>193222</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>6.460100000000001</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>193222</v>
       </c>
       <c r="F53" s="29" t="n">
         <v>0</v>
@@ -11063,10 +11082,10 @@
         <v>29460</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>179222</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>6.083600000000001</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>179222</v>
       </c>
       <c r="F54" s="29" t="n">
         <v>0</v>
@@ -11083,10 +11102,10 @@
         <v>28350</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>172450</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>6.0829</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>172450</v>
       </c>
       <c r="F55" s="29" t="n">
         <v>0</v>
@@ -11103,10 +11122,10 @@
         <v>27030</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>158769</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>5.8738</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>158769</v>
       </c>
       <c r="F56" s="29" t="n">
         <v>0</v>
@@ -11123,10 +11142,10 @@
         <v>25680</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>142056</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>5.5318</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>142056</v>
       </c>
       <c r="F57" s="29" t="n">
         <v>0</v>
@@ -11143,10 +11162,10 @@
         <v>26490</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>138080</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>5.2125</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>138080</v>
       </c>
       <c r="F58" s="29" t="n">
         <v>0</v>
@@ -11163,10 +11182,10 @@
         <v>23140</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>153193</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>6.6203</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>153193</v>
       </c>
       <c r="F59" s="29" t="n">
         <v>0</v>
@@ -11183,10 +11202,10 @@
         <v>21950</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>293638</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>13.3776</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>293638</v>
       </c>
       <c r="F60" s="29" t="n">
         <v>0</v>
@@ -11203,10 +11222,10 @@
         <v>20770</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>174818</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>8.4169</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>174818</v>
       </c>
       <c r="F61" s="29" t="n">
         <v>1747</v>
@@ -11223,10 +11242,10 @@
         <v>20400</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>149915</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>7.3488</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>149915</v>
       </c>
       <c r="F62" s="29" t="n">
         <v>1997</v>
@@ -11243,10 +11262,10 @@
         <v>22110</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>155577</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>7.0365</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>155577</v>
       </c>
       <c r="F63" s="29" t="n">
         <v>1222</v>
@@ -11263,10 +11282,10 @@
         <v>21610</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>198157</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>9.169700000000001</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>198157</v>
       </c>
       <c r="F64" s="29" t="n">
         <v>982</v>
@@ -11283,10 +11302,10 @@
         <v>21130</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>189684</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>8.977</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>189684</v>
       </c>
       <c r="F65" s="29" t="n">
         <v>0</v>
@@ -11303,10 +11322,10 @@
         <v>21520</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>194741</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>9.049299999999999</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>194741</v>
       </c>
       <c r="F66" s="29" t="n">
         <v>772</v>
@@ -11323,10 +11342,10 @@
         <v>21500</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>177980</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>8.2781</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>177980</v>
       </c>
       <c r="F67" s="29" t="n">
         <v>0</v>
@@ -11343,10 +11362,10 @@
         <v>18590</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>135676</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>7.2983</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>135676</v>
       </c>
       <c r="F68" s="29" t="n">
         <v>0</v>
@@ -11362,10 +11381,10 @@
         <v>17270</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>142065</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>8.226100000000001</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>142065</v>
       </c>
       <c r="F69" s="29" t="n">
         <v>0</v>
@@ -11381,10 +11400,10 @@
         <v>24820</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>158541</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>6.3876</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>158541</v>
       </c>
       <c r="F70" s="29" t="n">
         <v>3000</v>
@@ -11400,10 +11419,10 @@
         <v>18120</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>118739</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>6.552899999999999</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>118739</v>
       </c>
       <c r="F71" s="29" t="n">
         <v>1000</v>
@@ -11419,10 +11438,10 @@
         <v>18000</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>132000</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>7.3333</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>132000</v>
       </c>
       <c r="F72" s="29" t="n">
         <v>1000</v>
@@ -11438,10 +11457,10 @@
         <v>18000</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>125000</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>6.9444</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>125000</v>
       </c>
       <c r="F73" s="29" t="n">
         <v>3000</v>
@@ -11457,10 +11476,10 @@
         <v>16010</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>130630</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>8.1593</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>130630</v>
       </c>
       <c r="F74" s="29" t="n">
         <v>9000</v>
@@ -11794,7 +11813,7 @@
       <c r="B7" s="14" t="n"/>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>Estadísticas del mercado mundial de (Producto)</t>
+          <t>Estadísticas del mercado mundial</t>
         </is>
       </c>
       <c r="D7" s="14" t="n"/>
@@ -11873,10 +11892,10 @@
         <v>80833</v>
       </c>
       <c r="D12" s="29" t="n">
+        <v>1781971</v>
+      </c>
+      <c r="E12" s="29" t="n">
         <v>22.0451</v>
-      </c>
-      <c r="E12" s="29" t="n">
-        <v>1781971</v>
       </c>
       <c r="F12" s="29" t="inlineStr"/>
       <c r="G12" s="29" t="n">
@@ -11893,10 +11912,10 @@
         <v>84733</v>
       </c>
       <c r="D13" s="29" t="n">
+        <v>1933015</v>
+      </c>
+      <c r="E13" s="29" t="n">
         <v>22.813</v>
-      </c>
-      <c r="E13" s="29" t="n">
-        <v>1933015</v>
       </c>
       <c r="F13" s="29" t="inlineStr"/>
       <c r="G13" s="29" t="n">
@@ -11913,10 +11932,10 @@
         <v>91922</v>
       </c>
       <c r="D14" s="29" t="n">
+        <v>2141970</v>
+      </c>
+      <c r="E14" s="29" t="n">
         <v>23.302</v>
-      </c>
-      <c r="E14" s="29" t="n">
-        <v>2141970</v>
       </c>
       <c r="F14" s="29" t="inlineStr"/>
       <c r="G14" s="29" t="n">
@@ -11933,10 +11952,10 @@
         <v>98241</v>
       </c>
       <c r="D15" s="29" t="n">
+        <v>2183918</v>
+      </c>
+      <c r="E15" s="29" t="n">
         <v>22.2302</v>
-      </c>
-      <c r="E15" s="29" t="n">
-        <v>2183918</v>
       </c>
       <c r="F15" s="29" t="inlineStr"/>
       <c r="G15" s="29" t="n">
@@ -11953,10 +11972,10 @@
         <v>98946</v>
       </c>
       <c r="D16" s="29" t="n">
+        <v>2292141</v>
+      </c>
+      <c r="E16" s="29" t="n">
         <v>23.1656</v>
-      </c>
-      <c r="E16" s="29" t="n">
-        <v>2292141</v>
       </c>
       <c r="F16" s="29" t="inlineStr"/>
       <c r="G16" s="29" t="n">
@@ -11973,10 +11992,10 @@
         <v>101980</v>
       </c>
       <c r="D17" s="29" t="n">
+        <v>2244001</v>
+      </c>
+      <c r="E17" s="29" t="n">
         <v>22.0043</v>
-      </c>
-      <c r="E17" s="29" t="n">
-        <v>2244001</v>
       </c>
       <c r="F17" s="29" t="inlineStr"/>
       <c r="G17" s="29" t="n">
@@ -11993,10 +12012,10 @@
         <v>103204</v>
       </c>
       <c r="D18" s="29" t="n">
+        <v>2312993</v>
+      </c>
+      <c r="E18" s="29" t="n">
         <v>22.4119</v>
-      </c>
-      <c r="E18" s="29" t="n">
-        <v>2312993</v>
       </c>
       <c r="F18" s="29" t="inlineStr"/>
       <c r="G18" s="29" t="n">
@@ -12013,10 +12032,10 @@
         <v>90316</v>
       </c>
       <c r="D19" s="29" t="n">
+        <v>2088048</v>
+      </c>
+      <c r="E19" s="29" t="n">
         <v>23.1194</v>
-      </c>
-      <c r="E19" s="29" t="n">
-        <v>2088048</v>
       </c>
       <c r="F19" s="29" t="inlineStr"/>
       <c r="G19" s="29" t="n">
@@ -12033,10 +12052,10 @@
         <v>95965</v>
       </c>
       <c r="D20" s="29" t="n">
+        <v>2119559</v>
+      </c>
+      <c r="E20" s="29" t="n">
         <v>22.0868</v>
-      </c>
-      <c r="E20" s="29" t="n">
-        <v>2119559</v>
       </c>
       <c r="F20" s="29" t="n">
         <v>18</v>
@@ -12055,10 +12074,10 @@
         <v>94375</v>
       </c>
       <c r="D21" s="29" t="n">
+        <v>2171448</v>
+      </c>
+      <c r="E21" s="29" t="n">
         <v>23.0087</v>
-      </c>
-      <c r="E21" s="29" t="n">
-        <v>2171448</v>
       </c>
       <c r="F21" s="29" t="inlineStr"/>
       <c r="G21" s="29" t="n">
@@ -12075,10 +12094,10 @@
         <v>92021</v>
       </c>
       <c r="D22" s="29" t="n">
+        <v>2163501</v>
+      </c>
+      <c r="E22" s="29" t="n">
         <v>23.5109</v>
-      </c>
-      <c r="E22" s="29" t="n">
-        <v>2163501</v>
       </c>
       <c r="F22" s="29" t="n">
         <v>0</v>
@@ -12097,10 +12116,10 @@
         <v>94612</v>
       </c>
       <c r="D23" s="29" t="n">
+        <v>2079547</v>
+      </c>
+      <c r="E23" s="29" t="n">
         <v>21.9797</v>
-      </c>
-      <c r="E23" s="29" t="n">
-        <v>2079547</v>
       </c>
       <c r="F23" s="29" t="n">
         <v>0</v>
@@ -12119,10 +12138,10 @@
         <v>97718</v>
       </c>
       <c r="D24" s="29" t="n">
+        <v>2198624</v>
+      </c>
+      <c r="E24" s="29" t="n">
         <v>22.4997</v>
-      </c>
-      <c r="E24" s="29" t="n">
-        <v>2198624</v>
       </c>
       <c r="F24" s="29" t="n">
         <v>0</v>
@@ -12141,10 +12160,10 @@
         <v>94946</v>
       </c>
       <c r="D25" s="29" t="n">
+        <v>2052928</v>
+      </c>
+      <c r="E25" s="29" t="n">
         <v>21.6221</v>
-      </c>
-      <c r="E25" s="29" t="n">
-        <v>2052928</v>
       </c>
       <c r="F25" s="29" t="n">
         <v>0</v>
@@ -12163,10 +12182,10 @@
         <v>93726</v>
       </c>
       <c r="D26" s="29" t="n">
+        <v>2065167</v>
+      </c>
+      <c r="E26" s="29" t="n">
         <v>22.0341</v>
-      </c>
-      <c r="E26" s="29" t="n">
-        <v>2065167</v>
       </c>
       <c r="F26" s="29" t="n">
         <v>0</v>
@@ -12185,10 +12204,10 @@
         <v>88189</v>
       </c>
       <c r="D27" s="29" t="n">
+        <v>1995206</v>
+      </c>
+      <c r="E27" s="29" t="n">
         <v>22.6242</v>
-      </c>
-      <c r="E27" s="29" t="n">
-        <v>1995206</v>
       </c>
       <c r="F27" s="29" t="n">
         <v>0</v>
@@ -12207,10 +12226,10 @@
         <v>96556</v>
       </c>
       <c r="D28" s="29" t="n">
+        <v>2092628</v>
+      </c>
+      <c r="E28" s="29" t="n">
         <v>21.6727</v>
-      </c>
-      <c r="E28" s="29" t="n">
-        <v>2092628</v>
       </c>
       <c r="F28" s="29" t="n">
         <v>0</v>
@@ -12229,10 +12248,10 @@
         <v>92996</v>
       </c>
       <c r="D29" s="29" t="n">
+        <v>1946912</v>
+      </c>
+      <c r="E29" s="29" t="n">
         <v>20.9354</v>
-      </c>
-      <c r="E29" s="29" t="n">
-        <v>1946912</v>
       </c>
       <c r="F29" s="29" t="n">
         <v>0</v>
@@ -12251,10 +12270,10 @@
         <v>85461</v>
       </c>
       <c r="D30" s="29" t="n">
+        <v>1637428</v>
+      </c>
+      <c r="E30" s="29" t="n">
         <v>19.1599</v>
-      </c>
-      <c r="E30" s="29" t="n">
-        <v>1637428</v>
       </c>
       <c r="F30" s="29" t="n">
         <v>0</v>
@@ -12273,10 +12292,10 @@
         <v>80889</v>
       </c>
       <c r="D31" s="29" t="n">
+        <v>1719392</v>
+      </c>
+      <c r="E31" s="29" t="n">
         <v>21.2562</v>
-      </c>
-      <c r="E31" s="29" t="n">
-        <v>1719392</v>
       </c>
       <c r="F31" s="29" t="n">
         <v>0</v>
@@ -12295,10 +12314,10 @@
         <v>82285</v>
       </c>
       <c r="D32" s="29" t="n">
+        <v>1905800</v>
+      </c>
+      <c r="E32" s="29" t="n">
         <v>23.161</v>
-      </c>
-      <c r="E32" s="29" t="n">
-        <v>1905800</v>
       </c>
       <c r="F32" s="29" t="n">
         <v>0</v>
@@ -12317,10 +12336,10 @@
         <v>75389</v>
       </c>
       <c r="D33" s="29" t="n">
+        <v>1491137</v>
+      </c>
+      <c r="E33" s="29" t="n">
         <v>19.7792</v>
-      </c>
-      <c r="E33" s="29" t="n">
-        <v>1491137</v>
       </c>
       <c r="F33" s="29" t="n">
         <v>0</v>
@@ -12339,10 +12358,10 @@
         <v>77409</v>
       </c>
       <c r="D34" s="29" t="n">
+        <v>1450324</v>
+      </c>
+      <c r="E34" s="29" t="n">
         <v>18.7359</v>
-      </c>
-      <c r="E34" s="29" t="n">
-        <v>1450324</v>
       </c>
       <c r="F34" s="29" t="n">
         <v>0</v>
@@ -12361,10 +12380,10 @@
         <v>80509</v>
       </c>
       <c r="D35" s="29" t="n">
+        <v>680364</v>
+      </c>
+      <c r="E35" s="29" t="n">
         <v>8.450799999999999</v>
-      </c>
-      <c r="E35" s="29" t="n">
-        <v>680364</v>
       </c>
       <c r="F35" s="29" t="n">
         <v>12.5</v>
@@ -12383,10 +12402,10 @@
         <v>80196</v>
       </c>
       <c r="D36" s="29" t="n">
+        <v>657060</v>
+      </c>
+      <c r="E36" s="29" t="n">
         <v>8.193200000000001</v>
-      </c>
-      <c r="E36" s="29" t="n">
-        <v>657060</v>
       </c>
       <c r="F36" s="29" t="n">
         <v>39</v>
@@ -12405,10 +12424,10 @@
         <v>77022</v>
       </c>
       <c r="D37" s="29" t="n">
+        <v>598587</v>
+      </c>
+      <c r="E37" s="29" t="n">
         <v>7.7716</v>
-      </c>
-      <c r="E37" s="29" t="n">
-        <v>598587</v>
       </c>
       <c r="F37" s="29" t="n">
         <v>25</v>
@@ -12427,10 +12446,10 @@
         <v>81664</v>
       </c>
       <c r="D38" s="29" t="n">
+        <v>624687</v>
+      </c>
+      <c r="E38" s="29" t="n">
         <v>7.6495</v>
-      </c>
-      <c r="E38" s="29" t="n">
-        <v>624687</v>
       </c>
       <c r="F38" s="29" t="n">
         <v>89</v>
@@ -12449,10 +12468,10 @@
         <v>75301</v>
       </c>
       <c r="D39" s="29" t="n">
+        <v>541758</v>
+      </c>
+      <c r="E39" s="29" t="n">
         <v>7.1946</v>
-      </c>
-      <c r="E39" s="29" t="n">
-        <v>541758</v>
       </c>
       <c r="F39" s="29" t="n">
         <v>717</v>
@@ -12471,10 +12490,10 @@
         <v>79347</v>
       </c>
       <c r="D40" s="29" t="n">
+        <v>763236</v>
+      </c>
+      <c r="E40" s="29" t="n">
         <v>9.619</v>
-      </c>
-      <c r="E40" s="29" t="n">
-        <v>763236</v>
       </c>
       <c r="F40" s="29" t="n">
         <v>422</v>
@@ -12493,10 +12512,10 @@
         <v>72213</v>
       </c>
       <c r="D41" s="29" t="n">
+        <v>447963</v>
+      </c>
+      <c r="E41" s="29" t="n">
         <v>6.203399999999999</v>
-      </c>
-      <c r="E41" s="29" t="n">
-        <v>447963</v>
       </c>
       <c r="F41" s="29" t="inlineStr"/>
       <c r="G41" s="29" t="n">
@@ -12513,10 +12532,10 @@
         <v>67392</v>
       </c>
       <c r="D42" s="29" t="n">
+        <v>441477</v>
+      </c>
+      <c r="E42" s="29" t="n">
         <v>6.5509</v>
-      </c>
-      <c r="E42" s="29" t="n">
-        <v>441477</v>
       </c>
       <c r="F42" s="29" t="inlineStr"/>
       <c r="G42" s="29" t="n">
@@ -12533,10 +12552,10 @@
         <v>67907</v>
       </c>
       <c r="D43" s="29" t="n">
+        <v>396429</v>
+      </c>
+      <c r="E43" s="29" t="n">
         <v>5.837800000000001</v>
-      </c>
-      <c r="E43" s="29" t="n">
-        <v>396429</v>
       </c>
       <c r="F43" s="29" t="inlineStr"/>
       <c r="G43" s="29" t="n">
@@ -12553,10 +12572,10 @@
         <v>71413</v>
       </c>
       <c r="D44" s="29" t="n">
+        <v>432435</v>
+      </c>
+      <c r="E44" s="29" t="n">
         <v>6.0554</v>
-      </c>
-      <c r="E44" s="29" t="n">
-        <v>432435</v>
       </c>
       <c r="F44" s="29" t="inlineStr"/>
       <c r="G44" s="29" t="n">
@@ -12573,10 +12592,10 @@
         <v>67986</v>
       </c>
       <c r="D45" s="29" t="n">
+        <v>437202</v>
+      </c>
+      <c r="E45" s="29" t="n">
         <v>6.430800000000001</v>
-      </c>
-      <c r="E45" s="29" t="n">
-        <v>437202</v>
       </c>
       <c r="F45" s="29" t="inlineStr"/>
       <c r="G45" s="29" t="n">
@@ -12593,10 +12612,10 @@
         <v>67046</v>
       </c>
       <c r="D46" s="29" t="n">
+        <v>449478</v>
+      </c>
+      <c r="E46" s="29" t="n">
         <v>6.704</v>
-      </c>
-      <c r="E46" s="29" t="n">
-        <v>449478</v>
       </c>
       <c r="F46" s="29" t="inlineStr"/>
       <c r="G46" s="29" t="n">
@@ -12613,10 +12632,10 @@
         <v>72927</v>
       </c>
       <c r="D47" s="29" t="n">
+        <v>468411</v>
+      </c>
+      <c r="E47" s="29" t="n">
         <v>6.423</v>
-      </c>
-      <c r="E47" s="29" t="n">
-        <v>468411</v>
       </c>
       <c r="F47" s="29" t="inlineStr"/>
       <c r="G47" s="29" t="n">
@@ -12633,10 +12652,10 @@
         <v>73749</v>
       </c>
       <c r="D48" s="29" t="n">
+        <v>415332</v>
+      </c>
+      <c r="E48" s="29" t="n">
         <v>5.631699999999999</v>
-      </c>
-      <c r="E48" s="29" t="n">
-        <v>415332</v>
       </c>
       <c r="F48" s="29" t="inlineStr"/>
       <c r="G48" s="29" t="n">
@@ -12653,10 +12672,10 @@
         <v>72488</v>
       </c>
       <c r="D49" s="29" t="n">
+        <v>343872</v>
+      </c>
+      <c r="E49" s="29" t="n">
         <v>4.7438</v>
-      </c>
-      <c r="E49" s="29" t="n">
-        <v>343872</v>
       </c>
       <c r="F49" s="29" t="inlineStr"/>
       <c r="G49" s="29" t="n">
@@ -12673,10 +12692,10 @@
         <v>74612</v>
       </c>
       <c r="D50" s="29" t="n">
+        <v>334911</v>
+      </c>
+      <c r="E50" s="29" t="n">
         <v>4.4887</v>
-      </c>
-      <c r="E50" s="29" t="n">
-        <v>334911</v>
       </c>
       <c r="F50" s="29" t="inlineStr"/>
       <c r="G50" s="29" t="n">
@@ -12693,10 +12712,10 @@
         <v>79391</v>
       </c>
       <c r="D51" s="29" t="n">
+        <v>354462</v>
+      </c>
+      <c r="E51" s="29" t="n">
         <v>4.4648</v>
-      </c>
-      <c r="E51" s="29" t="n">
-        <v>354462</v>
       </c>
       <c r="F51" s="29" t="inlineStr"/>
       <c r="G51" s="29" t="n">
@@ -12713,10 +12732,10 @@
         <v>74621</v>
       </c>
       <c r="D52" s="29" t="n">
+        <v>330504</v>
+      </c>
+      <c r="E52" s="29" t="n">
         <v>4.4291</v>
-      </c>
-      <c r="E52" s="29" t="n">
-        <v>330504</v>
       </c>
       <c r="F52" s="29" t="inlineStr"/>
       <c r="G52" s="29" t="n">
@@ -12733,10 +12752,10 @@
         <v>82158</v>
       </c>
       <c r="D53" s="29" t="n">
+        <v>339630</v>
+      </c>
+      <c r="E53" s="29" t="n">
         <v>4.1339</v>
-      </c>
-      <c r="E53" s="29" t="n">
-        <v>339630</v>
       </c>
       <c r="F53" s="29" t="inlineStr"/>
       <c r="G53" s="29" t="n">
@@ -12753,10 +12772,10 @@
         <v>74249</v>
       </c>
       <c r="D54" s="29" t="n">
+        <v>284478</v>
+      </c>
+      <c r="E54" s="29" t="n">
         <v>3.8314</v>
-      </c>
-      <c r="E54" s="29" t="n">
-        <v>284478</v>
       </c>
       <c r="F54" s="29" t="inlineStr"/>
       <c r="G54" s="29" t="n">
@@ -12773,10 +12792,10 @@
         <v>69739</v>
       </c>
       <c r="D55" s="29" t="n">
+        <v>294810</v>
+      </c>
+      <c r="E55" s="29" t="n">
         <v>4.227300000000001</v>
-      </c>
-      <c r="E55" s="29" t="n">
-        <v>294810</v>
       </c>
       <c r="F55" s="29" t="inlineStr"/>
       <c r="G55" s="29" t="n">
@@ -12793,10 +12812,10 @@
         <v>66305</v>
       </c>
       <c r="D56" s="29" t="n">
+        <v>284355</v>
+      </c>
+      <c r="E56" s="29" t="n">
         <v>4.288600000000001</v>
-      </c>
-      <c r="E56" s="29" t="n">
-        <v>284355</v>
       </c>
       <c r="F56" s="29" t="inlineStr"/>
       <c r="G56" s="29" t="n">
@@ -12813,10 +12832,10 @@
         <v>69429</v>
       </c>
       <c r="D57" s="29" t="n">
+        <v>279201</v>
+      </c>
+      <c r="E57" s="29" t="n">
         <v>4.0214</v>
-      </c>
-      <c r="E57" s="29" t="n">
-        <v>279201</v>
       </c>
       <c r="F57" s="29" t="inlineStr"/>
       <c r="G57" s="29" t="n">
@@ -12833,10 +12852,10 @@
         <v>65039</v>
       </c>
       <c r="D58" s="29" t="n">
+        <v>237027</v>
+      </c>
+      <c r="E58" s="29" t="n">
         <v>3.6444</v>
-      </c>
-      <c r="E58" s="29" t="n">
-        <v>237027</v>
       </c>
       <c r="F58" s="29" t="inlineStr"/>
       <c r="G58" s="29" t="n">
@@ -12853,10 +12872,10 @@
         <v>67378</v>
       </c>
       <c r="D59" s="29" t="n">
+        <v>221883</v>
+      </c>
+      <c r="E59" s="29" t="n">
         <v>3.2931</v>
-      </c>
-      <c r="E59" s="29" t="n">
-        <v>221883</v>
       </c>
       <c r="F59" s="29" t="inlineStr"/>
       <c r="G59" s="29" t="n">
@@ -12873,10 +12892,10 @@
         <v>82719</v>
       </c>
       <c r="D60" s="29" t="n">
+        <v>273354</v>
+      </c>
+      <c r="E60" s="29" t="n">
         <v>3.3046</v>
-      </c>
-      <c r="E60" s="29" t="n">
-        <v>273354</v>
       </c>
       <c r="F60" s="29" t="inlineStr"/>
       <c r="G60" s="29" t="n">
@@ -12893,10 +12912,10 @@
         <v>84706</v>
       </c>
       <c r="D61" s="29" t="n">
+        <v>264696</v>
+      </c>
+      <c r="E61" s="29" t="n">
         <v>3.1249</v>
-      </c>
-      <c r="E61" s="29" t="n">
-        <v>264696</v>
       </c>
       <c r="F61" s="29" t="inlineStr"/>
       <c r="G61" s="29" t="n">
@@ -12913,10 +12932,10 @@
         <v>104123</v>
       </c>
       <c r="D62" s="29" t="n">
+        <v>286701</v>
+      </c>
+      <c r="E62" s="29" t="n">
         <v>2.7535</v>
-      </c>
-      <c r="E62" s="29" t="n">
-        <v>286701</v>
       </c>
       <c r="F62" s="29" t="inlineStr"/>
       <c r="G62" s="29" t="n">
@@ -12933,10 +12952,10 @@
         <v>118636</v>
       </c>
       <c r="D63" s="29" t="n">
+        <v>285120</v>
+      </c>
+      <c r="E63" s="29" t="n">
         <v>2.4033</v>
-      </c>
-      <c r="E63" s="29" t="n">
-        <v>285120</v>
       </c>
       <c r="F63" s="29" t="inlineStr"/>
       <c r="G63" s="29" t="n">
@@ -12953,10 +12972,10 @@
         <v>115748</v>
       </c>
       <c r="D64" s="29" t="n">
+        <v>300564</v>
+      </c>
+      <c r="E64" s="29" t="n">
         <v>2.5967</v>
-      </c>
-      <c r="E64" s="29" t="n">
-        <v>300564</v>
       </c>
       <c r="F64" s="29" t="inlineStr"/>
       <c r="G64" s="29" t="n">
@@ -12973,10 +12992,10 @@
         <v>103429</v>
       </c>
       <c r="D65" s="29" t="n">
+        <v>247347</v>
+      </c>
+      <c r="E65" s="29" t="n">
         <v>2.3915</v>
-      </c>
-      <c r="E65" s="29" t="n">
-        <v>247347</v>
       </c>
       <c r="F65" s="29" t="inlineStr"/>
       <c r="G65" s="29" t="n">
@@ -12993,10 +13012,10 @@
         <v>114767</v>
       </c>
       <c r="D66" s="29" t="n">
+        <v>290919</v>
+      </c>
+      <c r="E66" s="29" t="n">
         <v>2.5349</v>
-      </c>
-      <c r="E66" s="29" t="n">
-        <v>290919</v>
       </c>
       <c r="F66" s="29" t="inlineStr"/>
       <c r="G66" s="29" t="n">
@@ -13013,10 +13032,10 @@
         <v>125971</v>
       </c>
       <c r="D67" s="29" t="n">
+        <v>312120</v>
+      </c>
+      <c r="E67" s="29" t="n">
         <v>2.4777</v>
-      </c>
-      <c r="E67" s="29" t="n">
-        <v>312120</v>
       </c>
       <c r="F67" s="29" t="inlineStr"/>
       <c r="G67" s="29" t="n">
@@ -13033,10 +13052,10 @@
         <v>126831</v>
       </c>
       <c r="D68" s="29" t="n">
+        <v>285891</v>
+      </c>
+      <c r="E68" s="29" t="n">
         <v>2.2541</v>
-      </c>
-      <c r="E68" s="29" t="n">
-        <v>285891</v>
       </c>
       <c r="F68" s="29" t="inlineStr"/>
       <c r="G68" s="29" t="n">
@@ -13052,10 +13071,10 @@
         <v>112525</v>
       </c>
       <c r="D69" s="29" t="n">
+        <v>249399</v>
+      </c>
+      <c r="E69" s="29" t="n">
         <v>2.2164</v>
-      </c>
-      <c r="E69" s="29" t="n">
-        <v>249399</v>
       </c>
       <c r="F69" s="29" t="inlineStr"/>
       <c r="G69" s="29" t="n">
@@ -13071,10 +13090,10 @@
         <v>119650</v>
       </c>
       <c r="D70" s="29" t="n">
+        <v>236823</v>
+      </c>
+      <c r="E70" s="29" t="n">
         <v>1.9793</v>
-      </c>
-      <c r="E70" s="29" t="n">
-        <v>236823</v>
       </c>
       <c r="F70" s="29" t="inlineStr"/>
       <c r="G70" s="29" t="n">
@@ -13090,10 +13109,10 @@
         <v>117691</v>
       </c>
       <c r="D71" s="29" t="n">
+        <v>246741</v>
+      </c>
+      <c r="E71" s="29" t="n">
         <v>2.0965</v>
-      </c>
-      <c r="E71" s="29" t="n">
-        <v>246741</v>
       </c>
       <c r="F71" s="29" t="inlineStr"/>
       <c r="G71" s="29" t="n">
@@ -13109,10 +13128,10 @@
         <v>109275</v>
       </c>
       <c r="D72" s="29" t="n">
+        <v>236817</v>
+      </c>
+      <c r="E72" s="29" t="n">
         <v>2.1672</v>
-      </c>
-      <c r="E72" s="29" t="n">
-        <v>236817</v>
       </c>
       <c r="F72" s="29" t="inlineStr"/>
       <c r="G72" s="29" t="n">
@@ -13128,10 +13147,10 @@
         <v>112807</v>
       </c>
       <c r="D73" s="29" t="n">
+        <v>240150</v>
+      </c>
+      <c r="E73" s="29" t="n">
         <v>2.1289</v>
-      </c>
-      <c r="E73" s="29" t="n">
-        <v>240150</v>
       </c>
       <c r="F73" s="29" t="inlineStr"/>
       <c r="G73" s="29" t="n">
@@ -13147,10 +13166,10 @@
         <v>114382</v>
       </c>
       <c r="D74" s="29" t="n">
+        <v>241353</v>
+      </c>
+      <c r="E74" s="29" t="n">
         <v>2.1101</v>
-      </c>
-      <c r="E74" s="29" t="n">
-        <v>241353</v>
       </c>
       <c r="F74" s="29" t="inlineStr"/>
       <c r="G74" s="29" t="n">
